--- a/data/Liberation_Price Tracker SKU list_v1 - Final.xlsx
+++ b/data/Liberation_Price Tracker SKU list_v1 - Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\park.yr\Downloads\Liberation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limdaekyoung/PycharmProjects/liberation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30CF00A-14F7-4E28-8C9B-A01AC328B43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35750474-E56F-8748-AE37-885A5432B81F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{082D8A25-05B0-4134-80F4-C81249D6F8B7}"/>
+    <workbookView xWindow="-660" yWindow="740" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{082D8A25-05B0-4134-80F4-C81249D6F8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Tracking Product List_MSP" sheetId="7" r:id="rId1"/>
@@ -19,27 +19,19 @@
     <sheet name="Naver_output file" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Tracking Product List_MSP'!$A$11:$BE$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Tracking Product List_MSP'!$A$11:$BF$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="456">
   <si>
     <t>No</t>
     <phoneticPr fontId="4"/>
@@ -599,9 +591,6 @@
     <t>https://www.coupang.com/vp/products/2237184136?itemId=3820245844</t>
   </si>
   <si>
-    <t>P&amp;G 다우니 스프링 가든 러브 1L</t>
-  </si>
-  <si>
     <t>https://search.shopping.naver.com/detail/detail.nhn?nvMid=22470992398</t>
   </si>
   <si>
@@ -1455,6 +1444,25 @@
   </si>
   <si>
     <t>https://search.shopping.naver.com/detail/detail.nhn?nvMid=12957053771</t>
+  </si>
+  <si>
+    <t>CURL</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl 'https://search.shopping.naver.com/catalog/6512752936/products?cardPrice=false&amp;deliveryToday=false&amp;isNPayPlus=false&amp;lowestPrice=27600&amp;nvMid=6512752936&amp;onlyBeautyWindow=false&amp;page=1&amp;pageSize=20&amp;pr=PC&amp;purchaseConditionSeq1=20040510&amp;sort=LOW_PRICE&amp;withFee=false&amp;isManual=true&amp;catalogProviderTypeCode=P13001&amp;exposeAreaName=SELLER_BY_PRICE&amp;catalogType=BRAND&amp;inflow=slbrc' \
+  -H 'Connection: keep-alive' \
+  -H 'Accept: application/json, text/plain, */*' \
+  -H 'User-Agent: Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/86.0.4240.183 Safari/537.36' \
+  -H 'urlprefix: /api' \
+  -H 'Sec-Fetch-Site: same-origin' \
+  -H 'Sec-Fetch-Mode: cors' \
+  -H 'Sec-Fetch-Dest: empty' \
+  -H 'Referer: https://search.shopping.naver.com/catalog/6512752936?NaPm=ct%3Dkheg5dpk%7Cci%3Ddfbe147c5a347429e12bdb239634516d9bd208db%7Ctr%3Dslsl%7Csn%3D95694%7Chk%3D12533b8064d416b650d4cd4cca9b8e29d508cd20' \
+  -H 'Accept-Language: ko,en-US;q=0.9,en;q=0.8,ja;q=0.7,zh-CN;q=0.6,zh;q=0.5' \
+  -H 'Cookie: ssm_au_c=kvugCAAD4BlH0l4vI72PkWec6JSvihl5qGMSV8o8zsxMgAAAA516KN/qJO/E5YgqAWbGFLM98x3S7y9J0WMJUhZ5mSrM=; ssm_au_c=kvugCAKOTAjCMAcPXx5SQAPPkKpk7QjI3AkyyjKlzN4ggAAAA1UexNKEFAuo6VvR/QX3GyWLpUhnbpMq1Sc/eAXmtMS0=; NNB=VCACQTT5ZKWF6; AD_SHP_BID=15; _sm_au_c=kvugCANzuCFMuUyiI0wDYAn3yFGx2+6JmQk+womGGdOUgAAAAVOtzVayeNX7lmhTpbHcEgt+v3whjYM0OveoCYn+nYRc=; JSESSIONID=4406F181691A0F541AFF7D86BB6126C3; NRTK=ag#all_gr#1_ma#-2_si#0_en#0_sp#0; _naver_usersession_=5uprxhXwsGuZMdzmrxH38w==; nx_ssl=2; ASID=01ea394500000175bb1e0fbc00000065; page_uid=UIzRVlp0YiRsstTzN34ssssssBK-358452; spage_uid=UIzRVlp0YiRsstTzN34ssssssBK-358452; ncpa=95694|kheg7mq8|ede39d6220d82940e242c220ef3e185a56121c20|null|19d94815340e98611adc0cf9b15c103a9bbb2c1e' \
+  --compressed</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1462,15 +1470,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1478,7 +1486,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1486,20 +1494,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1507,7 +1515,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1532,7 +1540,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1540,7 +1548,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1548,7 +1556,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1557,7 +1565,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1566,7 +1574,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1575,7 +1583,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1629,7 +1637,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1645,14 +1653,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1662,6 +1670,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1868,7 +1883,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1886,25 +1901,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,7 +1998,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="18" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1992,13 +2007,13 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1">
@@ -2064,14 +2079,11 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="Accent1 2" xfId="3" xr:uid="{CD18BBF3-FE95-4D55-822D-0AA1A21D82CD}"/>
-    <cellStyle name="Comma [0] 2" xfId="21" xr:uid="{A70D06FA-B7BE-4404-AA98-EBB1B9CCEF8C}"/>
-    <cellStyle name="Comma 2" xfId="22" xr:uid="{9D90804A-5877-4326-AB4D-E82B030EF873}"/>
-    <cellStyle name="Input 2" xfId="2" xr:uid="{F20D85D8-ABDA-4BA0-9A6B-522473105DCE}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E3027C87-3425-4354-A2E5-40D98544E226}"/>
-    <cellStyle name="Normal 2 2" xfId="19" xr:uid="{C0371AF8-5E3E-4743-AC06-6C5C6725E533}"/>
     <cellStyle name="강조색1 2" xfId="11" xr:uid="{A934E348-EA5B-4334-AF0A-1E05D501C3AF}"/>
     <cellStyle name="나쁨 2" xfId="9" xr:uid="{C2AC1E40-D9C4-4553-9EC2-4A44D1F99467}"/>
     <cellStyle name="백분율 2" xfId="23" xr:uid="{FB1E9176-C109-45C2-9F73-F2F505057D68}"/>
@@ -2094,6 +2106,12 @@
     <cellStyle name="표준 4" xfId="4" xr:uid="{99D950CB-BAA1-4230-A942-4E456B745BA6}"/>
     <cellStyle name="표준 5" xfId="6" xr:uid="{0A89C352-BF6C-489E-9EAF-1AE4462E684E}"/>
     <cellStyle name="하이퍼링크" xfId="18" builtinId="8"/>
+    <cellStyle name="Accent1 2" xfId="3" xr:uid="{CD18BBF3-FE95-4D55-822D-0AA1A21D82CD}"/>
+    <cellStyle name="Comma [0] 2" xfId="21" xr:uid="{A70D06FA-B7BE-4404-AA98-EBB1B9CCEF8C}"/>
+    <cellStyle name="Comma 2" xfId="22" xr:uid="{9D90804A-5877-4326-AB4D-E82B030EF873}"/>
+    <cellStyle name="Input 2" xfId="2" xr:uid="{F20D85D8-ABDA-4BA0-9A6B-522473105DCE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E3027C87-3425-4354-A2E5-40D98544E226}"/>
+    <cellStyle name="Normal 2 2" xfId="19" xr:uid="{C0371AF8-5E3E-4743-AC06-6C5C6725E533}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3801,121 +3819,125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA0E928-890E-40C6-90BA-DDBEAFEE735B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:BE55"/>
+  <dimension ref="A1:BF55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="11" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="9" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="67.42578125" style="17" customWidth="1"/>
-    <col min="19" max="19" width="70.28515625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" style="17" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="17" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="17" customWidth="1"/>
-    <col min="24" max="27" width="23" style="17" customWidth="1"/>
-    <col min="28" max="28" width="14" style="17" customWidth="1"/>
-    <col min="29" max="29" width="30" style="17" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30" style="17" customWidth="1"/>
-    <col min="31" max="31" width="23.5703125" style="17" customWidth="1"/>
-    <col min="32" max="32" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="17" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" style="17" customWidth="1"/>
-    <col min="36" max="36" width="17.28515625" style="17" customWidth="1"/>
-    <col min="37" max="37" width="20.5703125" style="17" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" style="17" customWidth="1"/>
-    <col min="39" max="39" width="20.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="23" style="17" customWidth="1"/>
-    <col min="45" max="45" width="14" style="17" customWidth="1"/>
-    <col min="46" max="46" width="30" style="17" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30" style="17" customWidth="1"/>
-    <col min="48" max="48" width="23.5703125" style="17" customWidth="1"/>
-    <col min="49" max="49" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="22" style="17" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.5703125" style="17" customWidth="1"/>
-    <col min="52" max="52" width="19.28515625" style="17" customWidth="1"/>
-    <col min="53" max="53" width="17.28515625" style="17" customWidth="1"/>
-    <col min="54" max="54" width="20.5703125" style="17" customWidth="1"/>
-    <col min="55" max="55" width="18.140625" style="17" customWidth="1"/>
-    <col min="56" max="56" width="20.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="9" style="17"/>
+    <col min="7" max="7" width="8.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="76.6640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="17" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="67.5" style="17" customWidth="1"/>
+    <col min="20" max="20" width="70.33203125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" style="17" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" style="17" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" style="17" customWidth="1"/>
+    <col min="25" max="28" width="23" style="17" customWidth="1"/>
+    <col min="29" max="29" width="14" style="17" customWidth="1"/>
+    <col min="30" max="30" width="30" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30" style="17" customWidth="1"/>
+    <col min="32" max="32" width="23.5" style="17" customWidth="1"/>
+    <col min="33" max="33" width="20.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5" style="17" customWidth="1"/>
+    <col min="36" max="36" width="19.33203125" style="17" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" style="17" customWidth="1"/>
+    <col min="38" max="38" width="20.5" style="17" customWidth="1"/>
+    <col min="39" max="39" width="18.1640625" style="17" customWidth="1"/>
+    <col min="40" max="40" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="23" style="17" customWidth="1"/>
+    <col min="46" max="46" width="14" style="17" customWidth="1"/>
+    <col min="47" max="47" width="30" style="17" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30" style="17" customWidth="1"/>
+    <col min="49" max="49" width="23.5" style="17" customWidth="1"/>
+    <col min="50" max="50" width="20.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" style="17" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.5" style="17" customWidth="1"/>
+    <col min="53" max="53" width="19.33203125" style="17" customWidth="1"/>
+    <col min="54" max="54" width="17.33203125" style="17" customWidth="1"/>
+    <col min="55" max="55" width="20.5" style="17" customWidth="1"/>
+    <col min="56" max="56" width="18.1640625" style="17" customWidth="1"/>
+    <col min="57" max="57" width="20.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="21">
+    <row r="1" spans="1:58" ht="21">
       <c r="A1" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:58">
       <c r="A2" s="17" t="s">
         <v>137</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:58">
       <c r="A3" s="17" t="s">
         <v>141</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:58">
       <c r="A4" s="17" t="s">
         <v>138</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>135</v>
       </c>
+      <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:58">
       <c r="A5" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:58">
       <c r="A6" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AO6" s="17" t="s">
+      <c r="AP6" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:58">
       <c r="A7" s="6"/>
-      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
     </row>
-    <row r="8" spans="1:57" s="9" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:58" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>126</v>
       </c>
@@ -3934,28 +3956,28 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="U8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="V8" s="40" t="s">
+      <c r="V8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W8" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="W8" s="40"/>
-      <c r="X8" s="8"/>
+      <c r="X8" s="40"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -3963,24 +3985,24 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="8" t="s">
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AH8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
-      <c r="AM8" s="8" t="s">
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AN8" s="8" t="s">
+      <c r="AO8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AO8" s="8"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
@@ -3988,25 +4010,26 @@
       <c r="AT8" s="8"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
-      <c r="AW8" s="8" t="s">
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AX8" s="8" t="s">
+      <c r="AY8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
       <c r="BB8" s="8"/>
       <c r="BC8" s="8"/>
-      <c r="BD8" s="8" t="s">
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="BE8" s="8" t="s">
+      <c r="BF8" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="15.75">
+    <row r="9" spans="1:58" ht="16">
       <c r="A9" s="7"/>
       <c r="B9" s="41" t="s">
         <v>59</v>
@@ -4031,11 +4054,11 @@
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
       <c r="V9" s="42"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="44" t="s">
+      <c r="W9" s="42"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="45"/>
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="45"/>
@@ -4050,11 +4073,11 @@
       <c r="AK9" s="45"/>
       <c r="AL9" s="45"/>
       <c r="AM9" s="45"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="47" t="s">
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="AP9" s="48"/>
       <c r="AQ9" s="48"/>
       <c r="AR9" s="48"/>
       <c r="AS9" s="48"/>
@@ -4069,12 +4092,13 @@
       <c r="BB9" s="48"/>
       <c r="BC9" s="48"/>
       <c r="BD9" s="48"/>
-      <c r="BE9" s="49"/>
+      <c r="BE9" s="48"/>
+      <c r="BF9" s="49"/>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:58">
       <c r="A10" s="4"/>
       <c r="B10" s="50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
@@ -4090,10 +4114,10 @@
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="38"/>
+      <c r="P10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -4101,54 +4125,55 @@
       <c r="U10" s="39"/>
       <c r="V10" s="39"/>
       <c r="W10" s="39"/>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="39"/>
+      <c r="Y10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
       <c r="AB10" s="37"/>
-      <c r="AC10" s="38" t="s">
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="38"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
       <c r="AG10" s="38"/>
-      <c r="AH10" s="39" t="s">
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" s="39"/>
       <c r="AJ10" s="39"/>
       <c r="AK10" s="39"/>
       <c r="AL10" s="39"/>
       <c r="AM10" s="39"/>
       <c r="AN10" s="39"/>
-      <c r="AO10" s="37" t="s">
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
       <c r="AR10" s="37"/>
       <c r="AS10" s="37"/>
-      <c r="AT10" s="38" t="s">
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AU10" s="38"/>
       <c r="AV10" s="38"/>
       <c r="AW10" s="38"/>
       <c r="AX10" s="38"/>
-      <c r="AY10" s="39" t="s">
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="AZ10" s="39"/>
       <c r="BA10" s="39"/>
       <c r="BB10" s="39"/>
       <c r="BC10" s="39"/>
       <c r="BD10" s="39"/>
       <c r="BE10" s="39"/>
+      <c r="BF10" s="39"/>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:58">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4184,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>57</v>
@@ -4183,145 +4208,148 @@
         <v>46</v>
       </c>
       <c r="L11" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="R11" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="AH11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="AI11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="R11" s="10" t="s">
+      <c r="AJ11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="AM11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="T11" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="U11" s="10" t="s">
+      <c r="AN11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11" s="10" t="s">
+      <c r="AP11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="Y11" s="10" t="s">
+      <c r="AQ11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="AR11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AS11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AT11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AC11" s="10" t="s">
+      <c r="AU11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AD11" s="10" t="s">
+      <c r="AV11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="10" t="s">
+      <c r="AW11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AF11" s="10" t="s">
+      <c r="AX11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AG11" s="10" t="s">
+      <c r="AY11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AH11" s="10" t="s">
+      <c r="AZ11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AI11" s="10" t="s">
+      <c r="BA11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="BB11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AK11" s="10" t="s">
+      <c r="BC11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AL11" s="10" t="s">
+      <c r="BD11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AM11" s="10" t="s">
+      <c r="BE11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AN11" s="10" t="s">
+      <c r="BF11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AO11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE11" s="10" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="12" spans="1:57" s="16" customFormat="1">
+    <row r="12" spans="1:58" s="16" customFormat="1" ht="409.6">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -4329,10 +4357,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>153</v>
@@ -4351,46 +4379,49 @@
         <v>18622015409</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L12" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="N12" s="16">
         <v>1000</v>
       </c>
-      <c r="N12" s="16">
-        <v>1</v>
-      </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="16">
+        <v>1</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q12" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="P12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q12" s="16" t="s">
+      <c r="R12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="S12" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="T12" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="S12" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="T12" s="16">
+      <c r="U12" s="16">
         <v>1050</v>
       </c>
-      <c r="U12" s="16">
+      <c r="V12" s="16">
         <v>3</v>
       </c>
-      <c r="V12" s="26">
+      <c r="W12" s="26">
         <v>16900</v>
       </c>
-      <c r="W12" s="26">
+      <c r="X12" s="26">
         <v>19400</v>
       </c>
     </row>
-    <row r="13" spans="1:57" s="16" customFormat="1">
+    <row r="13" spans="1:58" s="16" customFormat="1">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -4398,10 +4429,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>153</v>
@@ -4420,46 +4451,47 @@
         <v>6205110708</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L13" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="34"/>
+      <c r="N13" s="16">
         <v>1000</v>
       </c>
-      <c r="N13" s="16">
-        <v>1</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>382</v>
+      <c r="O13" s="16">
+        <v>1</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="R13" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="S13" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="T13" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="T13" s="16">
+      <c r="U13" s="16">
         <v>1050</v>
       </c>
-      <c r="U13" s="16">
+      <c r="V13" s="16">
         <v>3</v>
       </c>
-      <c r="V13" s="26">
+      <c r="W13" s="26">
         <v>14100</v>
       </c>
-      <c r="W13" s="26">
+      <c r="X13" s="26">
         <v>15800</v>
       </c>
     </row>
-    <row r="14" spans="1:57" s="16" customFormat="1">
+    <row r="14" spans="1:58" s="16" customFormat="1" ht="17">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -4467,10 +4499,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>153</v>
@@ -4494,41 +4526,42 @@
       <c r="L14" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="35"/>
+      <c r="N14" s="16">
         <v>1000</v>
       </c>
-      <c r="N14" s="16">
-        <v>1</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>383</v>
+      <c r="O14" s="16">
+        <v>1</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="R14" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="S14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="S14" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="T14" s="16">
+      <c r="T14" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="U14" s="16">
         <v>1050</v>
       </c>
-      <c r="U14" s="16">
+      <c r="V14" s="16">
         <v>3</v>
       </c>
-      <c r="V14" s="26">
+      <c r="W14" s="26">
         <v>14100</v>
       </c>
-      <c r="W14" s="26">
+      <c r="X14" s="26">
         <v>15800</v>
       </c>
     </row>
-    <row r="15" spans="1:57" s="16" customFormat="1">
+    <row r="15" spans="1:58" s="16" customFormat="1" ht="17">
       <c r="A15" s="16">
         <v>4</v>
       </c>
@@ -4536,10 +4569,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>153</v>
@@ -4563,41 +4596,42 @@
       <c r="L15" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="35"/>
+      <c r="N15" s="16">
         <v>1000</v>
       </c>
-      <c r="N15" s="16">
-        <v>1</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>384</v>
+      <c r="O15" s="16">
+        <v>1</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="Q15" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="R15" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="S15" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="S15" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="T15" s="16">
+      <c r="T15" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="U15" s="16">
         <v>1050</v>
       </c>
-      <c r="U15" s="16">
+      <c r="V15" s="16">
         <v>3</v>
       </c>
-      <c r="V15" s="26">
+      <c r="W15" s="26">
         <v>14100</v>
       </c>
-      <c r="W15" s="26">
+      <c r="X15" s="26">
         <v>15800</v>
       </c>
     </row>
-    <row r="16" spans="1:57" s="16" customFormat="1">
+    <row r="16" spans="1:58" s="16" customFormat="1" ht="17">
       <c r="A16" s="16">
         <v>5</v>
       </c>
@@ -4605,10 +4639,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>153</v>
@@ -4632,41 +4666,42 @@
       <c r="L16" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="35"/>
+      <c r="N16" s="16">
         <v>1000</v>
       </c>
-      <c r="N16" s="16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>371</v>
+      <c r="O16" s="16">
+        <v>1</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="R16" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="T16" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="T16" s="16">
+      <c r="U16" s="16">
         <v>1050</v>
       </c>
-      <c r="U16" s="16">
+      <c r="V16" s="16">
         <v>3</v>
       </c>
-      <c r="V16" s="26">
+      <c r="W16" s="26">
         <v>16900</v>
       </c>
-      <c r="W16" s="26">
+      <c r="X16" s="26">
         <v>19400</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="16" customFormat="1">
+    <row r="17" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A17" s="16">
         <v>6</v>
       </c>
@@ -4674,10 +4709,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>153</v>
@@ -4695,47 +4730,48 @@
       <c r="J17" s="16">
         <v>22470992398</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="16">
+        <v>3014260279059</v>
+      </c>
+      <c r="L17" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="M17" s="35"/>
+      <c r="N17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="16">
+        <v>1</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="M17" s="16">
-        <v>1000</v>
-      </c>
-      <c r="N17" s="16">
-        <v>1</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="S17" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="T17" s="16">
+      <c r="T17" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="U17" s="16">
         <v>1050</v>
       </c>
-      <c r="U17" s="16">
+      <c r="V17" s="16">
         <v>3</v>
       </c>
-      <c r="V17" s="26">
+      <c r="W17" s="26">
         <v>16900</v>
       </c>
-      <c r="W17" s="26">
+      <c r="X17" s="26">
         <v>19400</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="16" customFormat="1">
+    <row r="18" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A18" s="16">
         <v>7</v>
       </c>
@@ -4743,10 +4779,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>153</v>
@@ -4765,46 +4801,47 @@
         <v>18625174654</v>
       </c>
       <c r="K18" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="M18" s="35"/>
+      <c r="N18" s="16">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S18" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="M18" s="16">
-        <v>1000</v>
-      </c>
-      <c r="N18" s="16">
-        <v>1</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="T18" s="16">
+      <c r="T18" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="U18" s="16">
         <v>1050</v>
       </c>
-      <c r="U18" s="16">
+      <c r="V18" s="16">
         <v>3</v>
       </c>
-      <c r="V18" s="26">
+      <c r="W18" s="26">
         <v>16900</v>
       </c>
-      <c r="W18" s="26">
+      <c r="X18" s="26">
         <v>19400</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="16" customFormat="1">
+    <row r="19" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A19" s="16">
         <v>8</v>
       </c>
@@ -4812,7 +4849,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>14</v>
@@ -4834,46 +4871,47 @@
         <v>20703609360</v>
       </c>
       <c r="K19" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="M19" s="35"/>
+      <c r="N19" s="16">
+        <v>1600</v>
+      </c>
+      <c r="O19" s="16">
+        <v>1</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S19" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="M19" s="16">
+      <c r="T19" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="U19" s="16">
         <v>1600</v>
       </c>
-      <c r="N19" s="16">
-        <v>1</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="S19" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="T19" s="16">
-        <v>1600</v>
-      </c>
-      <c r="U19" s="16">
-        <v>1</v>
-      </c>
-      <c r="V19" s="26">
-        <v>10300</v>
+      <c r="V19" s="16">
+        <v>1</v>
       </c>
       <c r="W19" s="26">
         <v>10300</v>
       </c>
+      <c r="X19" s="26">
+        <v>10300</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" s="16" customFormat="1">
+    <row r="20" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A20" s="16">
         <v>9</v>
       </c>
@@ -4881,7 +4919,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>15</v>
@@ -4903,46 +4941,47 @@
         <v>6205084317</v>
       </c>
       <c r="K20" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="L20" s="35" t="s">
+      <c r="M20" s="35"/>
+      <c r="N20" s="16">
+        <v>2000</v>
+      </c>
+      <c r="O20" s="16">
+        <v>1</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S20" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="M20" s="16">
+      <c r="T20" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="U20" s="16">
         <v>2000</v>
       </c>
-      <c r="N20" s="16">
-        <v>1</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="T20" s="16">
-        <v>2000</v>
-      </c>
-      <c r="U20" s="16">
-        <v>1</v>
-      </c>
-      <c r="V20" s="26">
-        <v>11400</v>
+      <c r="V20" s="16">
+        <v>1</v>
       </c>
       <c r="W20" s="26">
         <v>11400</v>
       </c>
+      <c r="X20" s="26">
+        <v>11400</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" s="16" customFormat="1">
+    <row r="21" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A21" s="16">
         <v>10</v>
       </c>
@@ -4950,7 +4989,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>31</v>
@@ -4959,10 +4998,10 @@
         <v>153</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>4</v>
@@ -4974,46 +5013,47 @@
         <v>5825518465</v>
       </c>
       <c r="K21" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="L21" s="35" t="s">
+      <c r="M21" s="35"/>
+      <c r="N21" s="16">
+        <v>370</v>
+      </c>
+      <c r="O21" s="16">
+        <v>1</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S21" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M21" s="16">
-        <v>370</v>
-      </c>
-      <c r="N21" s="16">
-        <v>1</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R21" s="16" t="s">
+      <c r="T21" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="S21" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="T21" s="16">
+      <c r="U21" s="16">
         <v>360</v>
       </c>
-      <c r="U21" s="16">
+      <c r="V21" s="16">
         <v>3</v>
       </c>
-      <c r="V21" s="26">
+      <c r="W21" s="26">
         <v>11610</v>
       </c>
-      <c r="W21" s="26">
+      <c r="X21" s="26">
         <v>12900</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="16" customFormat="1">
+    <row r="22" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A22" s="16">
         <v>11</v>
       </c>
@@ -5021,7 +5061,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>32</v>
@@ -5030,10 +5070,10 @@
         <v>153</v>
       </c>
       <c r="F22" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>4</v>
@@ -5045,46 +5085,47 @@
         <v>6182316144</v>
       </c>
       <c r="K22" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="M22" s="35"/>
+      <c r="N22" s="16">
+        <v>370</v>
+      </c>
+      <c r="O22" s="16">
+        <v>1</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S22" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M22" s="16">
-        <v>370</v>
-      </c>
-      <c r="N22" s="16">
-        <v>1</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R22" s="16" t="s">
+      <c r="T22" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="S22" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="T22" s="16">
+      <c r="U22" s="16">
         <v>360</v>
       </c>
-      <c r="U22" s="16">
+      <c r="V22" s="16">
         <v>3</v>
       </c>
-      <c r="V22" s="26">
+      <c r="W22" s="26">
         <v>11610</v>
       </c>
-      <c r="W22" s="26">
+      <c r="X22" s="26">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="16" customFormat="1">
+    <row r="23" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A23" s="16">
         <v>12</v>
       </c>
@@ -5092,7 +5133,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>33</v>
@@ -5101,10 +5142,10 @@
         <v>153</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>4</v>
@@ -5116,46 +5157,47 @@
         <v>5825519252</v>
       </c>
       <c r="K23" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="L23" s="35" t="s">
+      <c r="M23" s="35"/>
+      <c r="N23" s="16">
+        <v>370</v>
+      </c>
+      <c r="O23" s="16">
+        <v>1</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="M23" s="16">
-        <v>370</v>
-      </c>
-      <c r="N23" s="16">
-        <v>1</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R23" s="16" t="s">
+      <c r="T23" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="S23" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="T23" s="16">
+      <c r="U23" s="16">
         <v>360</v>
       </c>
-      <c r="U23" s="16">
+      <c r="V23" s="16">
         <v>3</v>
       </c>
-      <c r="V23" s="26">
+      <c r="W23" s="26">
         <v>11610</v>
       </c>
-      <c r="W23" s="26">
+      <c r="X23" s="26">
         <v>12900</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="16" customFormat="1">
+    <row r="24" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A24" s="16">
         <v>13</v>
       </c>
@@ -5163,7 +5205,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>34</v>
@@ -5172,10 +5214,10 @@
         <v>153</v>
       </c>
       <c r="F24" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>4</v>
@@ -5187,46 +5229,47 @@
         <v>10335014076</v>
       </c>
       <c r="K24" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="M24" s="35"/>
+      <c r="N24" s="16">
+        <v>370</v>
+      </c>
+      <c r="O24" s="16">
+        <v>1</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S24" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="M24" s="16">
-        <v>370</v>
-      </c>
-      <c r="N24" s="16">
-        <v>1</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R24" s="16" t="s">
+      <c r="T24" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="S24" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="T24" s="16">
+      <c r="U24" s="16">
         <v>360</v>
       </c>
-      <c r="U24" s="16">
+      <c r="V24" s="16">
         <v>3</v>
       </c>
-      <c r="V24" s="26">
+      <c r="W24" s="26">
         <v>13410</v>
       </c>
-      <c r="W24" s="26">
+      <c r="X24" s="26">
         <v>14900</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="16" customFormat="1">
+    <row r="25" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A25" s="16">
         <v>14</v>
       </c>
@@ -5234,7 +5277,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>35</v>
@@ -5243,10 +5286,10 @@
         <v>153</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>4</v>
@@ -5258,46 +5301,47 @@
         <v>5825518967</v>
       </c>
       <c r="K25" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="L25" s="35" t="s">
+      <c r="M25" s="35"/>
+      <c r="N25" s="16">
+        <v>900</v>
+      </c>
+      <c r="O25" s="16">
+        <v>1</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="T25" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="M25" s="16">
-        <v>900</v>
-      </c>
-      <c r="N25" s="16">
-        <v>1</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="S25" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="T25" s="16">
+      <c r="U25" s="16">
         <v>880</v>
       </c>
-      <c r="U25" s="16">
+      <c r="V25" s="16">
         <v>2</v>
       </c>
-      <c r="V25" s="26">
+      <c r="W25" s="26">
         <v>9900</v>
       </c>
-      <c r="W25" s="26">
+      <c r="X25" s="26">
         <v>10900</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="16" customFormat="1">
+    <row r="26" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A26" s="16">
         <v>15</v>
       </c>
@@ -5305,7 +5349,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>36</v>
@@ -5314,10 +5358,10 @@
         <v>153</v>
       </c>
       <c r="F26" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>28</v>
@@ -5329,46 +5373,47 @@
         <v>23076875490</v>
       </c>
       <c r="K26" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="L26" s="35" t="s">
+      <c r="M26" s="35"/>
+      <c r="N26" s="16">
+        <v>275</v>
+      </c>
+      <c r="O26" s="16">
+        <v>1</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S26" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="M26" s="16">
+      <c r="T26" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="U26" s="16">
         <v>275</v>
       </c>
-      <c r="N26" s="16">
-        <v>1</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="S26" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="T26" s="16">
-        <v>275</v>
-      </c>
-      <c r="U26" s="16">
+      <c r="V26" s="16">
         <v>4</v>
       </c>
-      <c r="V26" s="26">
+      <c r="W26" s="26">
         <v>16110</v>
       </c>
-      <c r="W26" s="26">
+      <c r="X26" s="26">
         <v>17900</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="16" customFormat="1">
+    <row r="27" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A27" s="16">
         <v>16</v>
       </c>
@@ -5376,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>37</v>
@@ -5385,10 +5430,10 @@
         <v>153</v>
       </c>
       <c r="F27" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>4</v>
@@ -5400,47 +5445,48 @@
         <v>5825510700</v>
       </c>
       <c r="K27" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="L27" s="35" t="s">
+      <c r="M27" s="35"/>
+      <c r="N27" s="16">
+        <v>320</v>
+      </c>
+      <c r="O27" s="16">
+        <v>1</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S27" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="M27" s="16">
+      <c r="T27" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="U27" s="16">
         <v>320</v>
       </c>
-      <c r="N27" s="16">
-        <v>1</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R27" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="S27" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="T27" s="16">
-        <v>320</v>
-      </c>
-      <c r="U27" s="16">
+      <c r="V27" s="16">
         <v>2</v>
       </c>
-      <c r="V27" s="26">
+      <c r="W27" s="26">
         <v>8600</v>
       </c>
-      <c r="W27" s="26">
+      <c r="X27" s="26">
         <v>9800</v>
       </c>
-      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
     </row>
-    <row r="28" spans="1:26" s="16" customFormat="1">
+    <row r="28" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A28" s="16">
         <v>17</v>
       </c>
@@ -5448,7 +5494,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>38</v>
@@ -5457,10 +5503,10 @@
         <v>153</v>
       </c>
       <c r="F28" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>28</v>
@@ -5472,46 +5518,47 @@
         <v>6973866336</v>
       </c>
       <c r="K28" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="M28" s="35"/>
+      <c r="N28" s="16">
+        <v>275</v>
+      </c>
+      <c r="O28" s="16">
+        <v>1</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S28" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="M28" s="16">
+      <c r="T28" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="U28" s="16">
         <v>275</v>
       </c>
-      <c r="N28" s="16">
-        <v>1</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R28" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="S28" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="T28" s="16">
-        <v>275</v>
-      </c>
-      <c r="U28" s="16">
+      <c r="V28" s="16">
         <v>4</v>
       </c>
-      <c r="V28" s="26">
+      <c r="W28" s="26">
         <v>16110</v>
       </c>
-      <c r="W28" s="26">
+      <c r="X28" s="26">
         <v>17900</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="16" customFormat="1">
+    <row r="29" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A29" s="16">
         <v>18</v>
       </c>
@@ -5519,7 +5566,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>39</v>
@@ -5528,10 +5575,10 @@
         <v>153</v>
       </c>
       <c r="F29" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>4</v>
@@ -5543,46 +5590,47 @@
         <v>6746609696</v>
       </c>
       <c r="K29" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="M29" s="35"/>
+      <c r="N29" s="16">
+        <v>900</v>
+      </c>
+      <c r="O29" s="16">
+        <v>1</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="T29" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="M29" s="16">
-        <v>900</v>
-      </c>
-      <c r="N29" s="16">
-        <v>1</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="S29" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="T29" s="16">
+      <c r="U29" s="16">
         <v>880</v>
       </c>
-      <c r="U29" s="16">
+      <c r="V29" s="16">
         <v>2</v>
       </c>
-      <c r="V29" s="26">
+      <c r="W29" s="26">
         <v>9810</v>
       </c>
-      <c r="W29" s="26">
+      <c r="X29" s="26">
         <v>10900</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="16" customFormat="1">
+    <row r="30" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A30" s="16">
         <v>19</v>
       </c>
@@ -5590,19 +5638,19 @@
         <v>26</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>153</v>
       </c>
       <c r="F30" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>29</v>
@@ -5614,46 +5662,47 @@
         <v>24030635784</v>
       </c>
       <c r="K30" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="L30" s="35" t="s">
+      <c r="M30" s="35"/>
+      <c r="N30" s="16">
+        <v>6</v>
+      </c>
+      <c r="O30" s="16">
+        <v>2</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S30" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="M30" s="16">
+      <c r="T30" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="U30" s="16">
         <v>6</v>
       </c>
-      <c r="N30" s="16">
-        <v>2</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R30" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="S30" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="T30" s="16">
-        <v>6</v>
-      </c>
-      <c r="U30" s="16">
+      <c r="V30" s="16">
         <v>4</v>
       </c>
-      <c r="V30" s="26">
+      <c r="W30" s="26">
         <v>15210</v>
       </c>
-      <c r="W30" s="26">
+      <c r="X30" s="26">
         <v>16900</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="16" customFormat="1">
+    <row r="31" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A31" s="16">
         <v>20</v>
       </c>
@@ -5661,7 +5710,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>40</v>
@@ -5670,10 +5719,10 @@
         <v>153</v>
       </c>
       <c r="F31" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>30</v>
@@ -5685,46 +5734,47 @@
         <v>24075395989</v>
       </c>
       <c r="K31" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="M31" s="35"/>
+      <c r="N31" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O31" s="16">
+        <v>1</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S31" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="M31" s="16">
+      <c r="T31" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="U31" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N31" s="16">
-        <v>1</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q31" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R31" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="S31" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="T31" s="16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U31" s="16">
+      <c r="V31" s="16">
         <v>2</v>
       </c>
-      <c r="V31" s="26">
+      <c r="W31" s="26">
         <v>13410</v>
       </c>
-      <c r="W31" s="26">
+      <c r="X31" s="26">
         <v>14900</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="16" customFormat="1">
+    <row r="32" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A32" s="16">
         <v>21</v>
       </c>
@@ -5741,10 +5791,10 @@
         <v>153</v>
       </c>
       <c r="F32" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="25">
@@ -5754,50 +5804,51 @@
         <v>13057454748</v>
       </c>
       <c r="K32" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="L32" s="27" t="s">
+      <c r="M32" s="27"/>
+      <c r="N32" s="16">
+        <v>8</v>
+      </c>
+      <c r="O32" s="16">
+        <v>1</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S32" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="M32" s="16">
+      <c r="T32" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="U32" s="16">
         <v>8</v>
       </c>
-      <c r="N32" s="16">
-        <v>1</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="S32" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="T32" s="16">
-        <v>8</v>
-      </c>
-      <c r="U32" s="16">
-        <v>1</v>
-      </c>
-      <c r="V32" s="26">
-        <f>W32*0.7</f>
+      <c r="V32" s="16">
+        <v>1</v>
+      </c>
+      <c r="W32" s="26">
+        <f>X32*0.7</f>
         <v>34930</v>
       </c>
-      <c r="W32" s="26">
+      <c r="X32" s="26">
         <v>49900</v>
       </c>
-      <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
       <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
     </row>
-    <row r="33" spans="1:26" s="16" customFormat="1">
+    <row r="33" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A33" s="16">
         <v>22</v>
       </c>
@@ -5814,10 +5865,10 @@
         <v>153</v>
       </c>
       <c r="F33" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25">
@@ -5827,50 +5878,51 @@
         <v>13057454748</v>
       </c>
       <c r="K33" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="M33" s="27"/>
+      <c r="N33" s="16">
+        <v>4</v>
+      </c>
+      <c r="O33" s="16">
+        <v>1</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S33" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="M33" s="16">
+      <c r="T33" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="U33" s="16">
         <v>4</v>
       </c>
-      <c r="N33" s="16">
-        <v>1</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R33" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="S33" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="T33" s="16">
-        <v>4</v>
-      </c>
-      <c r="U33" s="16">
-        <v>1</v>
-      </c>
-      <c r="V33" s="26">
-        <f t="shared" ref="V33:V55" si="0">W33*0.7</f>
+      <c r="V33" s="16">
+        <v>1</v>
+      </c>
+      <c r="W33" s="26">
+        <f t="shared" ref="W33:W55" si="0">X33*0.7</f>
         <v>19530</v>
       </c>
-      <c r="W33" s="26">
+      <c r="X33" s="26">
         <v>27900</v>
       </c>
-      <c r="X33" s="31"/>
       <c r="Y33" s="31"/>
       <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
     </row>
-    <row r="34" spans="1:26" s="16" customFormat="1">
+    <row r="34" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A34" s="16">
         <v>23</v>
       </c>
@@ -5887,10 +5939,10 @@
         <v>153</v>
       </c>
       <c r="F34" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="25">
@@ -5900,50 +5952,51 @@
         <v>6512752936</v>
       </c>
       <c r="K34" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="M34" s="27"/>
+      <c r="N34" s="16">
+        <v>8</v>
+      </c>
+      <c r="O34" s="16">
+        <v>1</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S34" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="M34" s="16">
+      <c r="T34" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="U34" s="16">
         <v>8</v>
       </c>
-      <c r="N34" s="16">
-        <v>1</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="P34" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R34" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="S34" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="T34" s="16">
-        <v>8</v>
-      </c>
-      <c r="U34" s="16">
-        <v>1</v>
-      </c>
-      <c r="V34" s="26">
+      <c r="V34" s="16">
+        <v>1</v>
+      </c>
+      <c r="W34" s="26">
         <f t="shared" si="0"/>
         <v>34930</v>
       </c>
-      <c r="W34" s="26">
+      <c r="X34" s="26">
         <v>49900</v>
       </c>
-      <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
       <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
     </row>
-    <row r="35" spans="1:26" s="16" customFormat="1">
+    <row r="35" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A35" s="16">
         <v>24</v>
       </c>
@@ -5960,10 +6013,10 @@
         <v>153</v>
       </c>
       <c r="F35" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="25">
@@ -5973,50 +6026,51 @@
         <v>6512752936</v>
       </c>
       <c r="K35" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="M35" s="27"/>
+      <c r="N35" s="16">
+        <v>4</v>
+      </c>
+      <c r="O35" s="16">
+        <v>1</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S35" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="M35" s="16">
+      <c r="T35" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="U35" s="16">
         <v>4</v>
       </c>
-      <c r="N35" s="16">
-        <v>1</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="S35" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="T35" s="16">
-        <v>4</v>
-      </c>
-      <c r="U35" s="16">
-        <v>1</v>
-      </c>
-      <c r="V35" s="26">
+      <c r="V35" s="16">
+        <v>1</v>
+      </c>
+      <c r="W35" s="26">
         <f t="shared" si="0"/>
         <v>19530</v>
       </c>
-      <c r="W35" s="26">
+      <c r="X35" s="26">
         <v>27900</v>
       </c>
-      <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
       <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
     </row>
-    <row r="36" spans="1:26" s="16" customFormat="1">
+    <row r="36" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A36" s="16">
         <v>25</v>
       </c>
@@ -6033,10 +6087,10 @@
         <v>153</v>
       </c>
       <c r="F36" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="25">
@@ -6046,50 +6100,51 @@
         <v>9803321078</v>
       </c>
       <c r="K36" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="M36" s="27"/>
+      <c r="N36" s="16">
+        <v>8</v>
+      </c>
+      <c r="O36" s="16">
+        <v>1</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S36" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="M36" s="16">
+      <c r="T36" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="U36" s="16">
         <v>8</v>
       </c>
-      <c r="N36" s="16">
-        <v>1</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q36" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R36" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="S36" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="T36" s="16">
-        <v>8</v>
-      </c>
-      <c r="U36" s="16">
-        <v>1</v>
-      </c>
-      <c r="V36" s="26">
+      <c r="V36" s="16">
+        <v>1</v>
+      </c>
+      <c r="W36" s="26">
         <f t="shared" si="0"/>
         <v>32830</v>
       </c>
-      <c r="W36" s="26">
+      <c r="X36" s="26">
         <v>46900</v>
       </c>
-      <c r="X36" s="31"/>
       <c r="Y36" s="31"/>
       <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
     </row>
-    <row r="37" spans="1:26" s="16" customFormat="1">
+    <row r="37" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A37" s="16">
         <v>26</v>
       </c>
@@ -6106,10 +6161,10 @@
         <v>153</v>
       </c>
       <c r="F37" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="25">
@@ -6119,50 +6174,51 @@
         <v>9803321078</v>
       </c>
       <c r="K37" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="L37" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="L37" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="M37" s="16">
+      <c r="M37" s="27"/>
+      <c r="N37" s="16">
         <v>4</v>
       </c>
-      <c r="N37" s="16">
-        <v>1</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>367</v>
+      <c r="O37" s="16">
+        <v>1</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="Q37" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="R37" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R37" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="S37" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="T37" s="16">
+      <c r="S37" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="T37" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="U37" s="16">
         <v>4</v>
       </c>
-      <c r="U37" s="16">
-        <v>1</v>
-      </c>
-      <c r="V37" s="26">
+      <c r="V37" s="16">
+        <v>1</v>
+      </c>
+      <c r="W37" s="26">
         <f t="shared" si="0"/>
         <v>18130</v>
       </c>
-      <c r="W37" s="26">
+      <c r="X37" s="26">
         <v>25900</v>
       </c>
-      <c r="X37" s="31"/>
       <c r="Y37" s="31"/>
       <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
     </row>
-    <row r="38" spans="1:26" s="16" customFormat="1">
+    <row r="38" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A38" s="16">
         <v>27</v>
       </c>
@@ -6179,10 +6235,10 @@
         <v>153</v>
       </c>
       <c r="F38" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="25">
@@ -6192,50 +6248,51 @@
         <v>21151605555</v>
       </c>
       <c r="K38" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="L38" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="L38" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="M38" s="16">
+      <c r="M38" s="27"/>
+      <c r="N38" s="16">
         <v>4</v>
       </c>
-      <c r="N38" s="16">
-        <v>1</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>364</v>
+      <c r="O38" s="16">
+        <v>1</v>
       </c>
       <c r="P38" s="16" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="Q38" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R38" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R38" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="S38" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="T38" s="16">
+      <c r="S38" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="T38" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="U38" s="16">
         <v>4</v>
       </c>
-      <c r="U38" s="16">
-        <v>1</v>
-      </c>
-      <c r="V38" s="26">
+      <c r="V38" s="16">
+        <v>1</v>
+      </c>
+      <c r="W38" s="26">
         <f t="shared" si="0"/>
         <v>18130</v>
       </c>
-      <c r="W38" s="26">
+      <c r="X38" s="26">
         <v>25900</v>
       </c>
-      <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
       <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
     </row>
-    <row r="39" spans="1:26" s="16" customFormat="1">
+    <row r="39" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A39" s="16">
         <v>28</v>
       </c>
@@ -6252,10 +6309,10 @@
         <v>153</v>
       </c>
       <c r="F39" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="25">
@@ -6265,50 +6322,51 @@
         <v>12957053771</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="M39" s="16">
+        <v>453</v>
+      </c>
+      <c r="M39" s="27"/>
+      <c r="N39" s="16">
         <v>2</v>
       </c>
-      <c r="N39" s="16">
-        <v>1</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>366</v>
+      <c r="O39" s="16">
+        <v>1</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="Q39" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="R39" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R39" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="S39" s="27" t="s">
+      <c r="S39" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="T39" s="16">
+      <c r="T39" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="U39" s="16">
         <v>2</v>
       </c>
-      <c r="U39" s="16">
-        <v>1</v>
-      </c>
-      <c r="V39" s="26">
+      <c r="V39" s="16">
+        <v>1</v>
+      </c>
+      <c r="W39" s="26">
         <f t="shared" si="0"/>
         <v>13930</v>
       </c>
-      <c r="W39" s="26">
+      <c r="X39" s="26">
         <v>19900</v>
       </c>
-      <c r="X39" s="31"/>
       <c r="Y39" s="31"/>
       <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
     </row>
-    <row r="40" spans="1:26" s="16" customFormat="1">
+    <row r="40" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A40" s="16">
         <v>29</v>
       </c>
@@ -6325,10 +6383,10 @@
         <v>153</v>
       </c>
       <c r="F40" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="25">
@@ -6338,50 +6396,51 @@
         <v>12956890511</v>
       </c>
       <c r="K40" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="L40" s="27" t="s">
+      <c r="M40" s="27"/>
+      <c r="N40" s="16">
+        <v>1</v>
+      </c>
+      <c r="O40" s="16">
+        <v>1</v>
+      </c>
+      <c r="P40" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q40" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="R40" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S40" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="M40" s="16">
-        <v>1</v>
-      </c>
-      <c r="N40" s="16">
-        <v>1</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="P40" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q40" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R40" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="S40" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="T40" s="16">
-        <v>1</v>
+      <c r="T40" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="U40" s="16">
         <v>1</v>
       </c>
-      <c r="V40" s="26">
+      <c r="V40" s="16">
+        <v>1</v>
+      </c>
+      <c r="W40" s="26">
         <f t="shared" si="0"/>
         <v>13930</v>
       </c>
-      <c r="W40" s="26">
+      <c r="X40" s="26">
         <v>19900</v>
       </c>
-      <c r="X40" s="31"/>
       <c r="Y40" s="31"/>
       <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
     </row>
-    <row r="41" spans="1:26" s="16" customFormat="1">
+    <row r="41" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A41" s="16">
         <v>30</v>
       </c>
@@ -6398,10 +6457,10 @@
         <v>153</v>
       </c>
       <c r="F41" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="25">
@@ -6411,50 +6470,51 @@
         <v>16654052240</v>
       </c>
       <c r="K41" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="L41" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="M41" s="16">
+      <c r="M41" s="27"/>
+      <c r="N41" s="16">
         <v>2</v>
       </c>
-      <c r="N41" s="16">
-        <v>1</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>356</v>
+      <c r="O41" s="16">
+        <v>1</v>
       </c>
       <c r="P41" s="16" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="Q41" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="R41" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R41" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="S41" s="20" t="s">
+      <c r="S41" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="T41" s="16">
+      <c r="T41" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="U41" s="16">
         <v>2</v>
       </c>
-      <c r="U41" s="16">
-        <v>1</v>
-      </c>
-      <c r="V41" s="26">
+      <c r="V41" s="16">
+        <v>1</v>
+      </c>
+      <c r="W41" s="26">
         <f t="shared" si="0"/>
         <v>11550</v>
       </c>
-      <c r="W41" s="26">
+      <c r="X41" s="26">
         <v>16500</v>
       </c>
-      <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
       <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
     </row>
-    <row r="42" spans="1:26" s="16" customFormat="1">
+    <row r="42" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A42" s="16">
         <v>31</v>
       </c>
@@ -6471,10 +6531,10 @@
         <v>153</v>
       </c>
       <c r="F42" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="25">
@@ -6484,50 +6544,51 @@
         <v>21327584995</v>
       </c>
       <c r="K42" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L42" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="M42" s="27"/>
+      <c r="N42" s="16">
+        <v>2</v>
+      </c>
+      <c r="O42" s="16">
+        <v>1</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S42" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="M42" s="16">
+      <c r="T42" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="U42" s="16">
         <v>2</v>
       </c>
-      <c r="N42" s="16">
-        <v>1</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R42" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="S42" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="T42" s="16">
-        <v>2</v>
-      </c>
-      <c r="U42" s="16">
-        <v>1</v>
-      </c>
-      <c r="V42" s="26">
+      <c r="V42" s="16">
+        <v>1</v>
+      </c>
+      <c r="W42" s="26">
         <f t="shared" si="0"/>
         <v>10850</v>
       </c>
-      <c r="W42" s="26">
+      <c r="X42" s="26">
         <v>15500</v>
       </c>
-      <c r="X42" s="31"/>
       <c r="Y42" s="31"/>
       <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
     </row>
-    <row r="43" spans="1:26" s="16" customFormat="1">
+    <row r="43" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A43" s="16">
         <v>32</v>
       </c>
@@ -6544,10 +6605,10 @@
         <v>153</v>
       </c>
       <c r="F43" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="25">
@@ -6557,50 +6618,51 @@
         <v>21151447589</v>
       </c>
       <c r="K43" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="L43" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="L43" s="27" t="s">
+      <c r="M43" s="27"/>
+      <c r="N43" s="16">
+        <v>1</v>
+      </c>
+      <c r="O43" s="16">
+        <v>1</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S43" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="M43" s="16">
-        <v>1</v>
-      </c>
-      <c r="N43" s="16">
-        <v>1</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="P43" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R43" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="S43" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="T43" s="16">
-        <v>1</v>
+      <c r="T43" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="U43" s="16">
         <v>1</v>
       </c>
-      <c r="V43" s="26">
+      <c r="V43" s="16">
+        <v>1</v>
+      </c>
+      <c r="W43" s="26">
         <f t="shared" si="0"/>
         <v>13230</v>
       </c>
-      <c r="W43" s="26">
+      <c r="X43" s="26">
         <v>18900</v>
       </c>
-      <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
       <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
     </row>
-    <row r="44" spans="1:26" s="16" customFormat="1">
+    <row r="44" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A44" s="16">
         <v>33</v>
       </c>
@@ -6617,10 +6679,10 @@
         <v>153</v>
       </c>
       <c r="F44" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="25">
@@ -6630,50 +6692,51 @@
         <v>12957053771</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L44" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="M44" s="16">
-        <v>1</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M44" s="27"/>
       <c r="N44" s="16">
         <v>1</v>
       </c>
-      <c r="O44" s="16" t="s">
-        <v>404</v>
+      <c r="O44" s="16">
+        <v>1</v>
       </c>
       <c r="P44" s="16" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="Q44" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="R44" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R44" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="S44" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="T44" s="16">
-        <v>1</v>
+      <c r="S44" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="T44" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="U44" s="16">
         <v>1</v>
       </c>
-      <c r="V44" s="26">
+      <c r="V44" s="16">
+        <v>1</v>
+      </c>
+      <c r="W44" s="26">
         <f t="shared" si="0"/>
         <v>16029.999999999998</v>
       </c>
-      <c r="W44" s="26">
+      <c r="X44" s="26">
         <v>22900</v>
       </c>
-      <c r="X44" s="31"/>
       <c r="Y44" s="31"/>
       <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
     </row>
-    <row r="45" spans="1:26" s="16" customFormat="1">
+    <row r="45" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A45" s="16">
         <v>34</v>
       </c>
@@ -6681,7 +6744,7 @@
         <v>73</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>99</v>
@@ -6690,10 +6753,10 @@
         <v>153</v>
       </c>
       <c r="F45" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H45" s="25" t="s">
         <v>82</v>
@@ -6705,50 +6768,51 @@
         <v>11328654902</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L45" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="27"/>
+      <c r="N45" s="16">
+        <v>1</v>
+      </c>
+      <c r="O45" s="16">
+        <v>1</v>
+      </c>
+      <c r="P45" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="R45" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S45" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="M45" s="16">
-        <v>1</v>
-      </c>
-      <c r="N45" s="16">
-        <v>1</v>
-      </c>
-      <c r="O45" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="P45" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R45" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="S45" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="T45" s="16">
-        <v>1</v>
+      <c r="T45" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="U45" s="16">
         <v>1</v>
       </c>
-      <c r="V45" s="26">
+      <c r="V45" s="16">
+        <v>1</v>
+      </c>
+      <c r="W45" s="26">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="W45" s="29">
+      <c r="X45" s="29">
         <v>2500</v>
       </c>
-      <c r="X45" s="31"/>
       <c r="Y45" s="31"/>
       <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
     </row>
-    <row r="46" spans="1:26" s="16" customFormat="1">
+    <row r="46" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A46" s="16">
         <v>35</v>
       </c>
@@ -6756,7 +6820,7 @@
         <v>74</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>100</v>
@@ -6765,10 +6829,10 @@
         <v>153</v>
       </c>
       <c r="F46" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>82</v>
@@ -6780,51 +6844,52 @@
         <v>11328649753</v>
       </c>
       <c r="K46" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="L46" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="M46" s="27"/>
+      <c r="N46" s="16">
+        <v>1</v>
+      </c>
+      <c r="O46" s="16">
+        <v>1</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S46" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="M46" s="16">
-        <v>1</v>
-      </c>
-      <c r="N46" s="16">
-        <v>1</v>
-      </c>
-      <c r="O46" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q46" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R46" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="S46" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="T46" s="16">
-        <v>1</v>
+      <c r="T46" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="U46" s="16">
+        <v>1</v>
+      </c>
+      <c r="V46" s="16">
         <v>2</v>
       </c>
-      <c r="V46" s="26">
+      <c r="W46" s="26">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="W46" s="29">
+      <c r="X46" s="29">
         <f>2500*2</f>
         <v>5000</v>
       </c>
-      <c r="X46" s="31"/>
       <c r="Y46" s="31"/>
       <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
     </row>
-    <row r="47" spans="1:26" s="16" customFormat="1">
+    <row r="47" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A47" s="16">
         <v>36</v>
       </c>
@@ -6832,7 +6897,7 @@
         <v>75</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>101</v>
@@ -6841,10 +6906,10 @@
         <v>153</v>
       </c>
       <c r="F47" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>83</v>
@@ -6856,51 +6921,52 @@
         <v>9768921714</v>
       </c>
       <c r="K47" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L47" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="L47" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="M47" s="16">
-        <v>1</v>
-      </c>
+      <c r="M47" s="27"/>
       <c r="N47" s="16">
         <v>1</v>
       </c>
-      <c r="O47" s="16" t="s">
-        <v>407</v>
+      <c r="O47" s="16">
+        <v>1</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="Q47" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="R47" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R47" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="S47" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="T47" s="16">
+      <c r="S47" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="T47" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="U47" s="16">
         <v>2</v>
       </c>
-      <c r="U47" s="16">
-        <v>1</v>
-      </c>
-      <c r="V47" s="26">
+      <c r="V47" s="16">
+        <v>1</v>
+      </c>
+      <c r="W47" s="26">
         <f t="shared" si="0"/>
         <v>4620</v>
       </c>
-      <c r="W47" s="29">
+      <c r="X47" s="29">
         <f>3300*2</f>
         <v>6600</v>
       </c>
-      <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
       <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
     </row>
-    <row r="48" spans="1:26" s="16" customFormat="1">
+    <row r="48" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A48" s="16">
         <v>37</v>
       </c>
@@ -6908,7 +6974,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>102</v>
@@ -6917,10 +6983,10 @@
         <v>153</v>
       </c>
       <c r="F48" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H48" s="25" t="s">
         <v>83</v>
@@ -6932,71 +6998,72 @@
         <v>6197001049</v>
       </c>
       <c r="K48" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="L48" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="L48" s="27" t="s">
+      <c r="M48" s="27"/>
+      <c r="N48" s="16">
+        <v>1</v>
+      </c>
+      <c r="O48" s="16">
+        <v>1</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S48" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="M48" s="16">
-        <v>1</v>
-      </c>
-      <c r="N48" s="16">
-        <v>1</v>
-      </c>
-      <c r="O48" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q48" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R48" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="S48" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="T48" s="16">
-        <v>2</v>
+      <c r="T48" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="U48" s="16">
         <v>2</v>
       </c>
-      <c r="V48" s="26">
+      <c r="V48" s="16">
+        <v>2</v>
+      </c>
+      <c r="W48" s="26">
         <f t="shared" si="0"/>
         <v>9240</v>
       </c>
-      <c r="W48" s="29">
+      <c r="X48" s="29">
         <f>3300*4</f>
         <v>13200</v>
       </c>
-      <c r="X48" s="31"/>
       <c r="Y48" s="31"/>
       <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
     </row>
-    <row r="49" spans="1:26" s="16" customFormat="1">
+    <row r="49" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A49" s="16">
         <v>38</v>
       </c>
       <c r="B49" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>266</v>
-      </c>
       <c r="D49" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>153</v>
       </c>
       <c r="F49" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H49" s="25" t="s">
         <v>83</v>
@@ -7008,51 +7075,52 @@
         <v>7334104980</v>
       </c>
       <c r="K49" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L49" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="L49" s="27" t="s">
+      <c r="M49" s="27"/>
+      <c r="N49" s="16">
+        <v>1</v>
+      </c>
+      <c r="O49" s="16">
+        <v>1</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q49" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="R49" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S49" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="M49" s="16">
-        <v>1</v>
-      </c>
-      <c r="N49" s="16">
-        <v>1</v>
-      </c>
-      <c r="O49" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R49" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="S49" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="T49" s="16">
-        <v>1</v>
+      <c r="T49" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="U49" s="16">
+        <v>1</v>
+      </c>
+      <c r="V49" s="16">
         <v>3</v>
       </c>
-      <c r="V49" s="26">
+      <c r="W49" s="26">
         <f t="shared" si="0"/>
         <v>7559.9999999999991</v>
       </c>
-      <c r="W49" s="29">
-        <f>3600*U49</f>
+      <c r="X49" s="29">
+        <f>3600*V49</f>
         <v>10800</v>
       </c>
-      <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
       <c r="Z49" s="31"/>
+      <c r="AA49" s="31"/>
     </row>
-    <row r="50" spans="1:26" s="16" customFormat="1">
+    <row r="50" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A50" s="16">
         <v>39</v>
       </c>
@@ -7060,7 +7128,7 @@
         <v>77</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>103</v>
@@ -7069,10 +7137,10 @@
         <v>153</v>
       </c>
       <c r="F50" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>83</v>
@@ -7084,71 +7152,72 @@
         <v>23684180490</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="M50" s="16">
-        <v>1</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M50" s="27"/>
       <c r="N50" s="16">
         <v>1</v>
       </c>
-      <c r="O50" s="16" t="s">
+      <c r="O50" s="16">
+        <v>1</v>
+      </c>
+      <c r="P50" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q50" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="P50" s="16" t="s">
+      <c r="R50" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S50" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="Q50" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R50" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="S50" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="T50" s="16">
-        <v>1</v>
+      <c r="T50" s="20" t="s">
+        <v>416</v>
       </c>
       <c r="U50" s="16">
+        <v>1</v>
+      </c>
+      <c r="V50" s="16">
         <v>3</v>
       </c>
-      <c r="V50" s="26">
+      <c r="W50" s="26">
         <f t="shared" si="0"/>
         <v>6930</v>
       </c>
-      <c r="W50" s="29">
-        <f>3300*U50</f>
+      <c r="X50" s="29">
+        <f>3300*V50</f>
         <v>9900</v>
       </c>
-      <c r="X50" s="31"/>
       <c r="Y50" s="31"/>
       <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
     </row>
-    <row r="51" spans="1:26" s="16" customFormat="1">
+    <row r="51" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A51" s="16">
         <v>40</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>153</v>
       </c>
       <c r="F51" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>83</v>
@@ -7160,51 +7229,52 @@
         <v>23684181490</v>
       </c>
       <c r="K51" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="L51" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="L51" s="27" t="s">
+      <c r="M51" s="27"/>
+      <c r="N51" s="16">
+        <v>1</v>
+      </c>
+      <c r="O51" s="16">
+        <v>2</v>
+      </c>
+      <c r="P51" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="R51" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S51" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="M51" s="16">
-        <v>1</v>
-      </c>
-      <c r="N51" s="16">
+      <c r="T51" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="U51" s="16">
         <v>2</v>
       </c>
-      <c r="O51" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="P51" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q51" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R51" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="S51" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="T51" s="16">
-        <v>2</v>
-      </c>
-      <c r="U51" s="16">
+      <c r="V51" s="16">
         <v>3</v>
       </c>
-      <c r="V51" s="26">
+      <c r="W51" s="26">
         <f t="shared" si="0"/>
         <v>10080</v>
       </c>
-      <c r="W51" s="29">
+      <c r="X51" s="29">
         <f>14400</f>
         <v>14400</v>
       </c>
-      <c r="X51" s="31"/>
       <c r="Y51" s="31"/>
       <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
     </row>
-    <row r="52" spans="1:26" s="16" customFormat="1">
+    <row r="52" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A52" s="16">
         <v>41</v>
       </c>
@@ -7212,7 +7282,7 @@
         <v>78</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D52" s="28" t="s">
         <v>104</v>
@@ -7221,10 +7291,10 @@
         <v>153</v>
       </c>
       <c r="F52" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>84</v>
@@ -7236,50 +7306,51 @@
         <v>13396543418</v>
       </c>
       <c r="K52" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="L52" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="M52" s="27"/>
+      <c r="N52" s="16">
+        <v>1</v>
+      </c>
+      <c r="O52" s="16">
+        <v>1</v>
+      </c>
+      <c r="P52" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="R52" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S52" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="M52" s="16">
-        <v>1</v>
-      </c>
-      <c r="N52" s="16">
-        <v>1</v>
-      </c>
-      <c r="O52" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="P52" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q52" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R52" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="S52" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="T52" s="16">
+      <c r="T52" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="U52" s="16">
         <v>4</v>
       </c>
-      <c r="U52" s="16">
-        <v>1</v>
-      </c>
-      <c r="V52" s="26">
+      <c r="V52" s="16">
+        <v>1</v>
+      </c>
+      <c r="W52" s="26">
         <f t="shared" si="0"/>
         <v>10150</v>
       </c>
-      <c r="W52" s="29">
+      <c r="X52" s="29">
         <v>14500</v>
       </c>
-      <c r="X52" s="31"/>
       <c r="Y52" s="31"/>
       <c r="Z52" s="31"/>
+      <c r="AA52" s="31"/>
     </row>
-    <row r="53" spans="1:26" s="16" customFormat="1">
+    <row r="53" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A53" s="16">
         <v>42</v>
       </c>
@@ -7287,7 +7358,7 @@
         <v>79</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>105</v>
@@ -7296,10 +7367,10 @@
         <v>153</v>
       </c>
       <c r="F53" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>84</v>
@@ -7311,51 +7382,52 @@
         <v>18621865118</v>
       </c>
       <c r="K53" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="L53" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="L53" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="M53" s="16">
+      <c r="M53" s="27"/>
+      <c r="N53" s="16">
         <v>3</v>
       </c>
-      <c r="N53" s="16">
-        <v>1</v>
-      </c>
-      <c r="O53" s="16" t="s">
-        <v>411</v>
+      <c r="O53" s="16">
+        <v>1</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="Q53" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="R53" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="R53" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="S53" s="20" t="s">
+      <c r="S53" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="T53" s="16">
+      <c r="T53" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="U53" s="16">
         <v>6</v>
       </c>
-      <c r="U53" s="16">
-        <v>1</v>
-      </c>
-      <c r="V53" s="26">
+      <c r="V53" s="16">
+        <v>1</v>
+      </c>
+      <c r="W53" s="26">
         <f t="shared" si="0"/>
         <v>13545</v>
       </c>
-      <c r="W53" s="29">
+      <c r="X53" s="29">
         <f>12900/4*6</f>
         <v>19350</v>
       </c>
-      <c r="X53" s="31"/>
       <c r="Y53" s="31"/>
       <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
     </row>
-    <row r="54" spans="1:26" s="16" customFormat="1">
+    <row r="54" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A54" s="16">
         <v>43</v>
       </c>
@@ -7363,7 +7435,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>106</v>
@@ -7372,10 +7444,10 @@
         <v>153</v>
       </c>
       <c r="F54" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G54" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>84</v>
@@ -7387,51 +7459,52 @@
         <v>18620494198</v>
       </c>
       <c r="K54" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="L54" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="L54" s="27" t="s">
+      <c r="M54" s="27"/>
+      <c r="N54" s="16">
+        <v>1</v>
+      </c>
+      <c r="O54" s="16">
+        <v>1</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="R54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S54" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="M54" s="16">
-        <v>1</v>
-      </c>
-      <c r="N54" s="16">
-        <v>1</v>
-      </c>
-      <c r="O54" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="P54" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q54" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R54" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="S54" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="T54" s="16">
-        <v>1</v>
+      <c r="T54" s="20" t="s">
+        <v>310</v>
       </c>
       <c r="U54" s="16">
+        <v>1</v>
+      </c>
+      <c r="V54" s="16">
         <v>12</v>
       </c>
-      <c r="V54" s="26">
+      <c r="W54" s="26">
         <f t="shared" si="0"/>
         <v>24990</v>
       </c>
-      <c r="W54" s="29">
+      <c r="X54" s="29">
         <f>11900*3</f>
         <v>35700</v>
       </c>
-      <c r="X54" s="31"/>
       <c r="Y54" s="31"/>
       <c r="Z54" s="31"/>
+      <c r="AA54" s="31"/>
     </row>
-    <row r="55" spans="1:26" s="16" customFormat="1">
+    <row r="55" spans="1:27" s="16" customFormat="1" ht="17">
       <c r="A55" s="16">
         <v>44</v>
       </c>
@@ -7439,7 +7512,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>107</v>
@@ -7448,10 +7521,10 @@
         <v>153</v>
       </c>
       <c r="F55" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G55" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="H55" s="25" t="s">
         <v>84</v>
@@ -7463,71 +7536,73 @@
         <v>23692847497</v>
       </c>
       <c r="K55" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="L55" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="L55" s="27" t="s">
+      <c r="M55" s="27"/>
+      <c r="N55" s="16">
+        <v>3</v>
+      </c>
+      <c r="O55" s="16">
+        <v>1</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="S55" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="M55" s="16">
-        <v>3</v>
-      </c>
-      <c r="N55" s="16">
-        <v>1</v>
-      </c>
-      <c r="O55" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="P55" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q55" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="R55" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="S55" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="T55" s="16">
-        <v>1</v>
+      <c r="T55" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="U55" s="16">
+        <v>1</v>
+      </c>
+      <c r="V55" s="16">
         <v>6</v>
       </c>
-      <c r="V55" s="26">
+      <c r="W55" s="26">
         <f t="shared" si="0"/>
         <v>16660</v>
       </c>
-      <c r="W55" s="29">
+      <c r="X55" s="29">
         <f>11900*2</f>
         <v>23800</v>
       </c>
-      <c r="X55" s="31"/>
       <c r="Y55" s="31"/>
       <c r="Z55" s="31"/>
+      <c r="AA55" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:BE55" xr:uid="{781A3F66-3382-45F6-AE22-9C45F5B16DDE}"/>
+  <autoFilter ref="A11:BF55" xr:uid="{781A3F66-3382-45F6-AE22-9C45F5B16DDE}"/>
   <mergeCells count="13">
-    <mergeCell ref="AO10:AS10"/>
-    <mergeCell ref="AT10:AX10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="B9:W9"/>
-    <mergeCell ref="X9:AN9"/>
-    <mergeCell ref="AO9:BE9"/>
+    <mergeCell ref="AP10:AT10"/>
+    <mergeCell ref="AU10:AY10"/>
+    <mergeCell ref="AZ10:BF10"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="B9:X9"/>
+    <mergeCell ref="Y9:AO9"/>
+    <mergeCell ref="AP9:BF9"/>
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="P10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="AI10:AO10"/>
   </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L12" r:id="rId1" xr:uid="{02F06F4D-B718-44A4-B9E3-F729BA20DD3D}"/>
-    <hyperlink ref="S13" r:id="rId2" display="https://www.coupang.com/vp/products/8403247?itemId=1038077450" xr:uid="{7C1FF7DE-3286-4824-918F-F17782633E5A}"/>
-    <hyperlink ref="S12" r:id="rId3" display="https://www.coupang.com/vp/products/1366695533?itemId=2246825376" xr:uid="{D3E5FE2E-2E9A-4560-A681-2C183E8A9A55}"/>
+    <hyperlink ref="T13" r:id="rId2" display="https://www.coupang.com/vp/products/8403247?itemId=1038077450" xr:uid="{7C1FF7DE-3286-4824-918F-F17782633E5A}"/>
+    <hyperlink ref="T12" r:id="rId3" display="https://www.coupang.com/vp/products/1366695533?itemId=2246825376" xr:uid="{D3E5FE2E-2E9A-4560-A681-2C183E8A9A55}"/>
     <hyperlink ref="L13" r:id="rId4" xr:uid="{419C92B9-685B-4513-B3A7-1AAAE3555205}"/>
     <hyperlink ref="L14" r:id="rId5" xr:uid="{56DA7EEC-A537-46DF-BEC8-3188B4A9BEF9}"/>
     <hyperlink ref="L15" r:id="rId6" xr:uid="{7F446A2E-8971-442F-B0E6-62798147B2A6}"/>
@@ -7546,24 +7621,24 @@
     <hyperlink ref="L29" r:id="rId19" xr:uid="{40F5B568-1AD1-4D27-8B5C-6E7976F384E0}"/>
     <hyperlink ref="L30" r:id="rId20" xr:uid="{60F19C97-460E-4EA3-BCC5-786BD138C16C}"/>
     <hyperlink ref="L31" r:id="rId21" xr:uid="{22FEB9A6-CA72-443D-86AB-F6BBCE041DCC}"/>
-    <hyperlink ref="S14" r:id="rId22" display="https://www.coupang.com/vp/products/324202666?itemId=1038077454" xr:uid="{04F03823-D2FB-4E15-8001-E81DFAC12C7E}"/>
-    <hyperlink ref="S15" r:id="rId23" display="https://www.coupang.com/vp/products/324202651?itemId=1038077401" xr:uid="{1090DAFD-91E5-4AFD-8205-0BA4966EE585}"/>
-    <hyperlink ref="S17" r:id="rId24" display="https://www.coupang.com/vp/products/1370801527?itemId=2403399112" xr:uid="{1B9A937B-FCD7-4D5F-8EDD-558F7B62E57F}"/>
-    <hyperlink ref="S18" r:id="rId25" display="https://www.coupang.com/vp/products/127467695?itemId=877623215" xr:uid="{EF9A4D17-AD81-4B02-82F4-719935E0DB1C}"/>
-    <hyperlink ref="S16" r:id="rId26" xr:uid="{9AB4EA10-60B9-42F6-AF30-9FA4971B8868}"/>
-    <hyperlink ref="S20" r:id="rId27" display="https://www.coupang.com/vp/products/5740084?itemId=6751262" xr:uid="{D8B986E9-F158-4D75-BDE1-4AB0F37546B3}"/>
-    <hyperlink ref="S21" r:id="rId28" xr:uid="{03B58A62-F929-4A77-80F3-7ECB0CCECE80}"/>
-    <hyperlink ref="S22" r:id="rId29" xr:uid="{E6D3DEFE-9733-44FC-9FB5-E51AD1D10CEB}"/>
-    <hyperlink ref="S23" r:id="rId30" xr:uid="{4CE251AF-AC3D-45CC-A837-D94A8ABF9C86}"/>
-    <hyperlink ref="S24" r:id="rId31" xr:uid="{B6BF95CD-24A0-4BB6-858B-15771DB59305}"/>
-    <hyperlink ref="S25" r:id="rId32" xr:uid="{97CA5A5B-F17F-4020-9EAE-2CF31E77BB28}"/>
-    <hyperlink ref="S26" r:id="rId33" xr:uid="{1CB70BC6-FCFD-4C26-8511-8FEA26790711}"/>
-    <hyperlink ref="S27" r:id="rId34" xr:uid="{C969AE79-5A82-4E64-B3E7-4C46690B7875}"/>
-    <hyperlink ref="S28" r:id="rId35" xr:uid="{8D2683ED-9A30-4C13-81E6-64B591295759}"/>
-    <hyperlink ref="S29" r:id="rId36" xr:uid="{74B9F7B1-C76B-4864-8EBC-A9F0DE801400}"/>
-    <hyperlink ref="S30" r:id="rId37" xr:uid="{60A89D4A-4939-477E-B10C-9E313DE6160C}"/>
-    <hyperlink ref="S31" r:id="rId38" xr:uid="{EA677EA9-7F85-4855-9ED4-7B34F8FAB7CD}"/>
-    <hyperlink ref="S19" r:id="rId39" display="https://www.coupang.com/vp/products/206774214?itemId=610956818" xr:uid="{8FDB9BD7-5CFF-476B-BBF5-5633F058AE6D}"/>
+    <hyperlink ref="T14" r:id="rId22" display="https://www.coupang.com/vp/products/324202666?itemId=1038077454" xr:uid="{04F03823-D2FB-4E15-8001-E81DFAC12C7E}"/>
+    <hyperlink ref="T15" r:id="rId23" display="https://www.coupang.com/vp/products/324202651?itemId=1038077401" xr:uid="{1090DAFD-91E5-4AFD-8205-0BA4966EE585}"/>
+    <hyperlink ref="T17" r:id="rId24" display="https://www.coupang.com/vp/products/1370801527?itemId=2403399112" xr:uid="{1B9A937B-FCD7-4D5F-8EDD-558F7B62E57F}"/>
+    <hyperlink ref="T18" r:id="rId25" display="https://www.coupang.com/vp/products/127467695?itemId=877623215" xr:uid="{EF9A4D17-AD81-4B02-82F4-719935E0DB1C}"/>
+    <hyperlink ref="T16" r:id="rId26" xr:uid="{9AB4EA10-60B9-42F6-AF30-9FA4971B8868}"/>
+    <hyperlink ref="T20" r:id="rId27" display="https://www.coupang.com/vp/products/5740084?itemId=6751262" xr:uid="{D8B986E9-F158-4D75-BDE1-4AB0F37546B3}"/>
+    <hyperlink ref="T21" r:id="rId28" xr:uid="{03B58A62-F929-4A77-80F3-7ECB0CCECE80}"/>
+    <hyperlink ref="T22" r:id="rId29" xr:uid="{E6D3DEFE-9733-44FC-9FB5-E51AD1D10CEB}"/>
+    <hyperlink ref="T23" r:id="rId30" xr:uid="{4CE251AF-AC3D-45CC-A837-D94A8ABF9C86}"/>
+    <hyperlink ref="T24" r:id="rId31" xr:uid="{B6BF95CD-24A0-4BB6-858B-15771DB59305}"/>
+    <hyperlink ref="T25" r:id="rId32" xr:uid="{97CA5A5B-F17F-4020-9EAE-2CF31E77BB28}"/>
+    <hyperlink ref="T26" r:id="rId33" xr:uid="{1CB70BC6-FCFD-4C26-8511-8FEA26790711}"/>
+    <hyperlink ref="T27" r:id="rId34" xr:uid="{C969AE79-5A82-4E64-B3E7-4C46690B7875}"/>
+    <hyperlink ref="T28" r:id="rId35" xr:uid="{8D2683ED-9A30-4C13-81E6-64B591295759}"/>
+    <hyperlink ref="T29" r:id="rId36" xr:uid="{74B9F7B1-C76B-4864-8EBC-A9F0DE801400}"/>
+    <hyperlink ref="T30" r:id="rId37" xr:uid="{60A89D4A-4939-477E-B10C-9E313DE6160C}"/>
+    <hyperlink ref="T31" r:id="rId38" xr:uid="{EA677EA9-7F85-4855-9ED4-7B34F8FAB7CD}"/>
+    <hyperlink ref="T19" r:id="rId39" display="https://www.coupang.com/vp/products/206774214?itemId=610956818" xr:uid="{8FDB9BD7-5CFF-476B-BBF5-5633F058AE6D}"/>
     <hyperlink ref="L45" r:id="rId40" xr:uid="{B17DF844-77F9-43AB-ADEC-7E8C7C10AD79}"/>
     <hyperlink ref="L46" r:id="rId41" xr:uid="{6234E9B6-3983-4783-BEF0-AC55188F6BA8}"/>
     <hyperlink ref="L47" r:id="rId42" xr:uid="{CA8D0F46-CB1F-405E-B3E7-FB46CB1F330D}"/>
@@ -7573,12 +7648,12 @@
     <hyperlink ref="L55" r:id="rId46" xr:uid="{35FE9C18-0617-410E-A295-7F0C37B79789}"/>
     <hyperlink ref="L54" r:id="rId47" xr:uid="{55AF23FC-2731-43D6-9BFC-E5B3FB6A6AC9}"/>
     <hyperlink ref="L49" r:id="rId48" xr:uid="{C5630D55-397A-4777-8669-39F1119480DF}"/>
-    <hyperlink ref="S46" r:id="rId49" xr:uid="{FD98A686-828A-45C9-892F-CABACB07DBD1}"/>
-    <hyperlink ref="S47" r:id="rId50" xr:uid="{D69BD7AF-A395-4884-9C0C-458297D43D58}"/>
-    <hyperlink ref="S48" r:id="rId51" xr:uid="{8259D4D9-B317-4856-9144-A93652990C73}"/>
-    <hyperlink ref="S53" r:id="rId52" display="https://www.coupang.com/vp/products/3199234?itemId=3903076" xr:uid="{0CE981E0-C1C2-45B8-9660-8BAE99D4B241}"/>
-    <hyperlink ref="S55" r:id="rId53" xr:uid="{D6EDB869-4EBD-47F4-A90B-CB15FD6A6F54}"/>
-    <hyperlink ref="S54" r:id="rId54" xr:uid="{BC5F4EFF-0F80-4BFB-BEC9-6AD383AC4832}"/>
+    <hyperlink ref="T46" r:id="rId49" xr:uid="{FD98A686-828A-45C9-892F-CABACB07DBD1}"/>
+    <hyperlink ref="T47" r:id="rId50" xr:uid="{D69BD7AF-A395-4884-9C0C-458297D43D58}"/>
+    <hyperlink ref="T48" r:id="rId51" xr:uid="{8259D4D9-B317-4856-9144-A93652990C73}"/>
+    <hyperlink ref="T53" r:id="rId52" display="https://www.coupang.com/vp/products/3199234?itemId=3903076" xr:uid="{0CE981E0-C1C2-45B8-9660-8BAE99D4B241}"/>
+    <hyperlink ref="T55" r:id="rId53" xr:uid="{D6EDB869-4EBD-47F4-A90B-CB15FD6A6F54}"/>
+    <hyperlink ref="T54" r:id="rId54" xr:uid="{BC5F4EFF-0F80-4BFB-BEC9-6AD383AC4832}"/>
     <hyperlink ref="L32" r:id="rId55" xr:uid="{62B4498E-19AA-4F57-AE4F-BBE676775ADC}"/>
     <hyperlink ref="L33" r:id="rId56" xr:uid="{D756429B-99DB-4773-9E25-58A58F392496}"/>
     <hyperlink ref="L34" r:id="rId57" xr:uid="{F595FE2E-4915-47DD-A0D5-8C968145FDD6}"/>
@@ -7591,24 +7666,24 @@
     <hyperlink ref="L43" r:id="rId64" xr:uid="{D1BD140C-8A4B-4636-83A3-ACD9B3A91CCC}"/>
     <hyperlink ref="L42" r:id="rId65" xr:uid="{A5AC2415-FA59-440E-9799-4BAE4D8ECF69}"/>
     <hyperlink ref="L41" r:id="rId66" xr:uid="{3E9EF113-69B5-4355-9559-8B77D01C44C0}"/>
-    <hyperlink ref="S32" r:id="rId67" xr:uid="{2875B798-23FA-49D9-B917-614117374100}"/>
-    <hyperlink ref="S33" r:id="rId68" xr:uid="{681E1C93-6AA2-4072-A6F4-40653AC37A1E}"/>
-    <hyperlink ref="S34" r:id="rId69" xr:uid="{5DC29752-4B0A-4A99-8F8C-C018F7AE50B5}"/>
-    <hyperlink ref="S35" r:id="rId70" xr:uid="{E7A777CE-0C12-4853-8E0E-70BC79483B66}"/>
-    <hyperlink ref="S36" r:id="rId71" xr:uid="{2421B3DD-D036-4901-B622-4154C44C2021}"/>
-    <hyperlink ref="S37" r:id="rId72" xr:uid="{D70307DD-A493-472A-9EC1-D8D6E9A6C781}"/>
-    <hyperlink ref="S44" r:id="rId73" xr:uid="{43852961-DB7B-46A4-BA1A-A522C9DF7535}"/>
-    <hyperlink ref="S38" r:id="rId74" xr:uid="{76429066-FC34-4BDB-8141-A45F5EAFE08B}"/>
-    <hyperlink ref="S42" r:id="rId75" xr:uid="{9074EB9D-C024-44FD-8EA1-95D1BB70AC70}"/>
-    <hyperlink ref="S43" r:id="rId76" xr:uid="{A8615043-71A4-476B-A537-90911A2A5ADB}"/>
+    <hyperlink ref="T32" r:id="rId67" xr:uid="{2875B798-23FA-49D9-B917-614117374100}"/>
+    <hyperlink ref="T33" r:id="rId68" xr:uid="{681E1C93-6AA2-4072-A6F4-40653AC37A1E}"/>
+    <hyperlink ref="T34" r:id="rId69" xr:uid="{5DC29752-4B0A-4A99-8F8C-C018F7AE50B5}"/>
+    <hyperlink ref="T35" r:id="rId70" xr:uid="{E7A777CE-0C12-4853-8E0E-70BC79483B66}"/>
+    <hyperlink ref="T36" r:id="rId71" xr:uid="{2421B3DD-D036-4901-B622-4154C44C2021}"/>
+    <hyperlink ref="T37" r:id="rId72" xr:uid="{D70307DD-A493-472A-9EC1-D8D6E9A6C781}"/>
+    <hyperlink ref="T44" r:id="rId73" xr:uid="{43852961-DB7B-46A4-BA1A-A522C9DF7535}"/>
+    <hyperlink ref="T38" r:id="rId74" xr:uid="{76429066-FC34-4BDB-8141-A45F5EAFE08B}"/>
+    <hyperlink ref="T42" r:id="rId75" xr:uid="{9074EB9D-C024-44FD-8EA1-95D1BB70AC70}"/>
+    <hyperlink ref="T43" r:id="rId76" xr:uid="{A8615043-71A4-476B-A537-90911A2A5ADB}"/>
     <hyperlink ref="L18" r:id="rId77" xr:uid="{543194B7-6C66-48F0-AF88-784789160F0E}"/>
-    <hyperlink ref="S40" r:id="rId78" xr:uid="{2E85DA23-C86C-4F67-96B4-9B8444B74431}"/>
-    <hyperlink ref="S45" r:id="rId79" display="https://www.coupang.com/vp/products/24131490?itemId=93945069&amp;vendorItemId=3000229112&amp;pickType=COU_PICK&amp;q=%EC%98%A4%EB%9E%84%EB%B9%84+%EB%AF%BC%ED%8A%B8cltlf&amp;itemsCount=36&amp;searchId=2665333e226945279bfd03f1c92698b2&amp;rank=1&amp;isAddedCart=" xr:uid="{8878FB12-0034-4FD8-A435-7E06109BFEC4}"/>
-    <hyperlink ref="S49" r:id="rId80" xr:uid="{EABEE546-F84D-4292-8C2E-B33C4877732D}"/>
+    <hyperlink ref="T40" r:id="rId78" xr:uid="{2E85DA23-C86C-4F67-96B4-9B8444B74431}"/>
+    <hyperlink ref="T45" r:id="rId79" display="https://www.coupang.com/vp/products/24131490?itemId=93945069&amp;vendorItemId=3000229112&amp;pickType=COU_PICK&amp;q=%EC%98%A4%EB%9E%84%EB%B9%84+%EB%AF%BC%ED%8A%B8cltlf&amp;itemsCount=36&amp;searchId=2665333e226945279bfd03f1c92698b2&amp;rank=1&amp;isAddedCart=" xr:uid="{8878FB12-0034-4FD8-A435-7E06109BFEC4}"/>
+    <hyperlink ref="T49" r:id="rId80" xr:uid="{EABEE546-F84D-4292-8C2E-B33C4877732D}"/>
     <hyperlink ref="L51" r:id="rId81" xr:uid="{AB730EBC-7FDD-4820-A78B-456F728B1349}"/>
-    <hyperlink ref="S52" r:id="rId82" xr:uid="{C924ABF8-D7E5-437B-BE3F-3199ED07ECFC}"/>
-    <hyperlink ref="S51" r:id="rId83" xr:uid="{589BBE6D-14FD-4C0D-86AF-F333E9E4737C}"/>
-    <hyperlink ref="S50" r:id="rId84" xr:uid="{27E84478-EACD-4CBF-AE0D-B504709F7ECE}"/>
+    <hyperlink ref="T52" r:id="rId82" xr:uid="{C924ABF8-D7E5-437B-BE3F-3199ED07ECFC}"/>
+    <hyperlink ref="T51" r:id="rId83" xr:uid="{589BBE6D-14FD-4C0D-86AF-F333E9E4737C}"/>
+    <hyperlink ref="T50" r:id="rId84" xr:uid="{27E84478-EACD-4CBF-AE0D-B504709F7ECE}"/>
     <hyperlink ref="L50" r:id="rId85" xr:uid="{75180D2D-565D-408F-8CF4-B569054DCA4D}"/>
     <hyperlink ref="L44" r:id="rId86" xr:uid="{10CA2363-69ED-46B0-940F-0B27ACEC1050}"/>
   </hyperlinks>
@@ -7626,14 +7701,14 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="172.5703125" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="172.5" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="20">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
@@ -7666,9 +7741,9 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75">
+    <row r="1" spans="1:1" ht="20">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -7693,16 +7768,16 @@
       <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">

--- a/data/Liberation_Price Tracker SKU list_v1 - Final.xlsx
+++ b/data/Liberation_Price Tracker SKU list_v1 - Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limdaekyoung/PycharmProjects/liberation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kang.y.5\OneDrive - Procter and Gamble\Documents\GitHub\liberation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35750474-E56F-8748-AE37-885A5432B81F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{35750474-E56F-8748-AE37-885A5432B81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E206F708-9A8F-4001-92E1-F9D25D4F0660}"/>
   <bookViews>
-    <workbookView xWindow="-660" yWindow="740" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{082D8A25-05B0-4134-80F4-C81249D6F8B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{082D8A25-05B0-4134-80F4-C81249D6F8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Tracking Product List_MSP" sheetId="7" r:id="rId1"/>
@@ -21,10 +21,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Tracking Product List_MSP'!$A$11:$BF$55</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1450,7 +1458,7 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>curl 'https://search.shopping.naver.com/catalog/6512752936/products?cardPrice=false&amp;deliveryToday=false&amp;isNPayPlus=false&amp;lowestPrice=27600&amp;nvMid=6512752936&amp;onlyBeautyWindow=false&amp;page=1&amp;pageSize=20&amp;pr=PC&amp;purchaseConditionSeq1=20040510&amp;sort=LOW_PRICE&amp;withFee=false&amp;isManual=true&amp;catalogProviderTypeCode=P13001&amp;exposeAreaName=SELLER_BY_PRICE&amp;catalogType=BRAND&amp;inflow=slbrc' \
+    <t>curl "https://search.shopping.naver.com/catalog/6512752936/products?cardPrice=false&amp;deliveryToday=false&amp;isNPayPlus=false&amp;lowestPrice=27600&amp;nvMid=6512752936&amp;onlyBeautyWindow=false&amp;page=1&amp;pageSize=20&amp;pr=PC&amp;purchaseConditionSeq1=20040510&amp;sort=LOW_PRICE&amp;withFee=false&amp;isManual=true&amp;catalogProviderTypeCode=P13001&amp;exposeAreaName=SELLER_BY_PRICE&amp;catalogType=BRAND&amp;inflow=slbrc" \
   -H 'Connection: keep-alive' \
   -H 'Accept: application/json, text/plain, */*' \
   -H 'User-Agent: Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/86.0.4240.183 Safari/537.36' \
@@ -1462,7 +1470,6 @@
   -H 'Accept-Language: ko,en-US;q=0.9,en;q=0.8,ja;q=0.7,zh-CN;q=0.6,zh;q=0.5' \
   -H 'Cookie: ssm_au_c=kvugCAAD4BlH0l4vI72PkWec6JSvihl5qGMSV8o8zsxMgAAAA516KN/qJO/E5YgqAWbGFLM98x3S7y9J0WMJUhZ5mSrM=; ssm_au_c=kvugCAKOTAjCMAcPXx5SQAPPkKpk7QjI3AkyyjKlzN4ggAAAA1UexNKEFAuo6VvR/QX3GyWLpUhnbpMq1Sc/eAXmtMS0=; NNB=VCACQTT5ZKWF6; AD_SHP_BID=15; _sm_au_c=kvugCANzuCFMuUyiI0wDYAn3yFGx2+6JmQk+womGGdOUgAAAAVOtzVayeNX7lmhTpbHcEgt+v3whjYM0OveoCYn+nYRc=; JSESSIONID=4406F181691A0F541AFF7D86BB6126C3; NRTK=ag#all_gr#1_ma#-2_si#0_en#0_sp#0; _naver_usersession_=5uprxhXwsGuZMdzmrxH38w==; nx_ssl=2; ASID=01ea394500000175bb1e0fbc00000065; page_uid=UIzRVlp0YiRsstTzN34ssssssBK-358452; spage_uid=UIzRVlp0YiRsstTzN34ssssssBK-358452; ncpa=95694|kheg7mq8|ede39d6220d82940e242c220ef3e185a56121c20|null|19d94815340e98611adc0cf9b15c103a9bbb2c1e' \
   --compressed</t>
-    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1470,15 +1477,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1486,7 +1493,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1494,20 +1501,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1515,7 +1522,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1540,7 +1547,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1548,7 +1555,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1556,7 +1563,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1565,7 +1572,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1574,7 +1581,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1583,7 +1590,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1637,7 +1644,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1653,14 +1660,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1673,7 +1680,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1883,7 +1890,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1901,23 +1908,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1998,7 +2005,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="18" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,13 +2014,13 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1">
@@ -2030,6 +2037,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2079,11 +2089,16 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="28">
+    <cellStyle name="Accent1 2" xfId="3" xr:uid="{CD18BBF3-FE95-4D55-822D-0AA1A21D82CD}"/>
+    <cellStyle name="Comma [0] 2" xfId="21" xr:uid="{A70D06FA-B7BE-4404-AA98-EBB1B9CCEF8C}"/>
+    <cellStyle name="Comma 2" xfId="22" xr:uid="{9D90804A-5877-4326-AB4D-E82B030EF873}"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8"/>
+    <cellStyle name="Input 2" xfId="2" xr:uid="{F20D85D8-ABDA-4BA0-9A6B-522473105DCE}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E3027C87-3425-4354-A2E5-40D98544E226}"/>
+    <cellStyle name="Normal 2 2" xfId="19" xr:uid="{C0371AF8-5E3E-4743-AC06-6C5C6725E533}"/>
     <cellStyle name="강조색1 2" xfId="11" xr:uid="{A934E348-EA5B-4334-AF0A-1E05D501C3AF}"/>
     <cellStyle name="나쁨 2" xfId="9" xr:uid="{C2AC1E40-D9C4-4553-9EC2-4A44D1F99467}"/>
     <cellStyle name="백분율 2" xfId="23" xr:uid="{FB1E9176-C109-45C2-9F73-F2F505057D68}"/>
@@ -2094,7 +2109,6 @@
     <cellStyle name="쉼표 [0] 3" xfId="27" xr:uid="{8E904538-A644-418B-9A4A-87051DA35DB1}"/>
     <cellStyle name="쉼표 [0] 4" xfId="25" xr:uid="{29B49EEE-F2C3-4CCE-9864-F3C86953EF41}"/>
     <cellStyle name="입력 2" xfId="10" xr:uid="{09712B67-15E2-4842-82AA-E3DCB3572D0B}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 12" xfId="17" xr:uid="{A379F59E-3062-4AB9-BA52-A3E4F139F891}"/>
     <cellStyle name="표준 2" xfId="8" xr:uid="{4AF07777-0331-4824-9328-4B8C4FA9D6B8}"/>
     <cellStyle name="표준 2 2" xfId="12" xr:uid="{2449B9C0-4AAE-4931-880D-596972103349}"/>
@@ -2105,13 +2119,6 @@
     <cellStyle name="표준 3" xfId="15" xr:uid="{A157B020-D4AF-4EAE-B97C-42B65F5881CF}"/>
     <cellStyle name="표준 4" xfId="4" xr:uid="{99D950CB-BAA1-4230-A942-4E456B745BA6}"/>
     <cellStyle name="표준 5" xfId="6" xr:uid="{0A89C352-BF6C-489E-9EAF-1AE4462E684E}"/>
-    <cellStyle name="하이퍼링크" xfId="18" builtinId="8"/>
-    <cellStyle name="Accent1 2" xfId="3" xr:uid="{CD18BBF3-FE95-4D55-822D-0AA1A21D82CD}"/>
-    <cellStyle name="Comma [0] 2" xfId="21" xr:uid="{A70D06FA-B7BE-4404-AA98-EBB1B9CCEF8C}"/>
-    <cellStyle name="Comma 2" xfId="22" xr:uid="{9D90804A-5877-4326-AB4D-E82B030EF873}"/>
-    <cellStyle name="Input 2" xfId="2" xr:uid="{F20D85D8-ABDA-4BA0-9A6B-522473105DCE}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E3027C87-3425-4354-A2E5-40D98544E226}"/>
-    <cellStyle name="Normal 2 2" xfId="19" xr:uid="{C0371AF8-5E3E-4743-AC06-6C5C6725E533}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3522,7 +3529,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3822,66 +3829,66 @@
   <dimension ref="A1:BF55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="11" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="17" customWidth="1"/>
     <col min="6" max="6" width="9" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="76.6640625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="18.5" style="17" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="76.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="67.5" style="17" customWidth="1"/>
-    <col min="20" max="20" width="70.33203125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="20.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" style="17" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="17" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="67.42578125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="70.28515625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="17" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" style="17" customWidth="1"/>
     <col min="25" max="28" width="23" style="17" customWidth="1"/>
     <col min="29" max="29" width="14" style="17" customWidth="1"/>
     <col min="30" max="30" width="30" style="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="30" style="17" customWidth="1"/>
-    <col min="32" max="32" width="23.5" style="17" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5" style="17" customWidth="1"/>
-    <col min="36" max="36" width="19.33203125" style="17" customWidth="1"/>
-    <col min="37" max="37" width="17.33203125" style="17" customWidth="1"/>
-    <col min="38" max="38" width="20.5" style="17" customWidth="1"/>
-    <col min="39" max="39" width="18.1640625" style="17" customWidth="1"/>
-    <col min="40" max="40" width="20.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.42578125" style="17" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" style="17" customWidth="1"/>
+    <col min="36" max="36" width="19.28515625" style="17" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" style="17" customWidth="1"/>
+    <col min="38" max="38" width="20.42578125" style="17" customWidth="1"/>
+    <col min="39" max="39" width="18.140625" style="17" customWidth="1"/>
+    <col min="40" max="40" width="20.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="42" max="45" width="23" style="17" customWidth="1"/>
     <col min="46" max="46" width="14" style="17" customWidth="1"/>
     <col min="47" max="47" width="30" style="17" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="30" style="17" customWidth="1"/>
-    <col min="49" max="49" width="23.5" style="17" customWidth="1"/>
-    <col min="50" max="50" width="20.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.42578125" style="17" customWidth="1"/>
+    <col min="50" max="50" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22" style="17" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.5" style="17" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" style="17" customWidth="1"/>
-    <col min="54" max="54" width="17.33203125" style="17" customWidth="1"/>
-    <col min="55" max="55" width="20.5" style="17" customWidth="1"/>
-    <col min="56" max="56" width="18.1640625" style="17" customWidth="1"/>
-    <col min="57" max="57" width="20.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.42578125" style="17" customWidth="1"/>
+    <col min="53" max="53" width="19.28515625" style="17" customWidth="1"/>
+    <col min="54" max="54" width="17.28515625" style="17" customWidth="1"/>
+    <col min="55" max="55" width="20.42578125" style="17" customWidth="1"/>
+    <col min="56" max="56" width="18.140625" style="17" customWidth="1"/>
+    <col min="57" max="57" width="20.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="59" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -3974,10 +3981,10 @@
       <c r="V8" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="W8" s="40" t="s">
+      <c r="W8" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="X8" s="40"/>
+      <c r="X8" s="41"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -4029,149 +4036,149 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="16">
+    <row r="9" spans="1:58" ht="15.75">
       <c r="A9" s="7"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="44" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="47" t="s">
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="50"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="4"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="38" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="39" t="s">
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="37" t="s">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="38" t="s">
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="39" t="s">
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="37" t="s">
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="38" t="s">
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="38"/>
-      <c r="AY10" s="38"/>
-      <c r="AZ10" s="39" t="s">
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="BA10" s="39"/>
-      <c r="BB10" s="39"/>
-      <c r="BC10" s="39"/>
-      <c r="BD10" s="39"/>
-      <c r="BE10" s="39"/>
-      <c r="BF10" s="39"/>
+      <c r="BA10" s="40"/>
+      <c r="BB10" s="40"/>
+      <c r="BC10" s="40"/>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="40"/>
+      <c r="BF10" s="40"/>
     </row>
     <row r="11" spans="1:58">
       <c r="A11" s="10" t="s">
@@ -4349,7 +4356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:58" s="16" customFormat="1" ht="409.6">
+    <row r="12" spans="1:58" s="16" customFormat="1" ht="409.5">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -4384,7 +4391,7 @@
       <c r="L12" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="37" t="s">
         <v>455</v>
       </c>
       <c r="N12" s="16">
@@ -4491,7 +4498,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="14" spans="1:58" s="16" customFormat="1" ht="17">
+    <row r="14" spans="1:58" s="16" customFormat="1">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -4561,7 +4568,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="15" spans="1:58" s="16" customFormat="1" ht="17">
+    <row r="15" spans="1:58" s="16" customFormat="1">
       <c r="A15" s="16">
         <v>4</v>
       </c>
@@ -4631,7 +4638,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="16" spans="1:58" s="16" customFormat="1" ht="17">
+    <row r="16" spans="1:58" s="16" customFormat="1">
       <c r="A16" s="16">
         <v>5</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="17" spans="1:27" s="16" customFormat="1">
       <c r="A17" s="16">
         <v>6</v>
       </c>
@@ -4771,7 +4778,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="18" spans="1:27" s="16" customFormat="1">
       <c r="A18" s="16">
         <v>7</v>
       </c>
@@ -4841,7 +4848,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="19" spans="1:27" s="16" customFormat="1">
       <c r="A19" s="16">
         <v>8</v>
       </c>
@@ -4911,7 +4918,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="20" spans="1:27" s="16" customFormat="1">
       <c r="A20" s="16">
         <v>9</v>
       </c>
@@ -4981,7 +4988,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="21" spans="1:27" s="16" customFormat="1">
       <c r="A21" s="16">
         <v>10</v>
       </c>
@@ -5053,7 +5060,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="22" spans="1:27" s="16" customFormat="1">
       <c r="A22" s="16">
         <v>11</v>
       </c>
@@ -5125,7 +5132,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="23" spans="1:27" s="16" customFormat="1">
       <c r="A23" s="16">
         <v>12</v>
       </c>
@@ -5197,7 +5204,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="24" spans="1:27" s="16" customFormat="1">
       <c r="A24" s="16">
         <v>13</v>
       </c>
@@ -5269,7 +5276,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="25" spans="1:27" s="16" customFormat="1">
       <c r="A25" s="16">
         <v>14</v>
       </c>
@@ -5341,7 +5348,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="26" spans="1:27" s="16" customFormat="1">
       <c r="A26" s="16">
         <v>15</v>
       </c>
@@ -5413,7 +5420,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="27" spans="1:27" s="16" customFormat="1">
       <c r="A27" s="16">
         <v>16</v>
       </c>
@@ -5486,7 +5493,7 @@
       </c>
       <c r="Y27" s="31"/>
     </row>
-    <row r="28" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="28" spans="1:27" s="16" customFormat="1">
       <c r="A28" s="16">
         <v>17</v>
       </c>
@@ -5558,7 +5565,7 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="29" spans="1:27" s="16" customFormat="1">
       <c r="A29" s="16">
         <v>18</v>
       </c>
@@ -5630,7 +5637,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="30" spans="1:27" s="16" customFormat="1">
       <c r="A30" s="16">
         <v>19</v>
       </c>
@@ -5702,7 +5709,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="31" spans="1:27" s="16" customFormat="1">
       <c r="A31" s="16">
         <v>20</v>
       </c>
@@ -5774,7 +5781,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="32" spans="1:27" s="16" customFormat="1">
       <c r="A32" s="16">
         <v>21</v>
       </c>
@@ -5811,7 +5818,7 @@
       </c>
       <c r="M32" s="27"/>
       <c r="N32" s="16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O32" s="16">
         <v>1</v>
@@ -5848,7 +5855,7 @@
       <c r="Z32" s="31"/>
       <c r="AA32" s="31"/>
     </row>
-    <row r="33" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="33" spans="1:27" s="16" customFormat="1">
       <c r="A33" s="16">
         <v>22</v>
       </c>
@@ -5922,7 +5929,7 @@
       <c r="Z33" s="31"/>
       <c r="AA33" s="31"/>
     </row>
-    <row r="34" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="34" spans="1:27" s="16" customFormat="1">
       <c r="A34" s="16">
         <v>23</v>
       </c>
@@ -5996,7 +6003,7 @@
       <c r="Z34" s="31"/>
       <c r="AA34" s="31"/>
     </row>
-    <row r="35" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="35" spans="1:27" s="16" customFormat="1">
       <c r="A35" s="16">
         <v>24</v>
       </c>
@@ -6070,7 +6077,7 @@
       <c r="Z35" s="31"/>
       <c r="AA35" s="31"/>
     </row>
-    <row r="36" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="36" spans="1:27" s="16" customFormat="1">
       <c r="A36" s="16">
         <v>25</v>
       </c>
@@ -6144,7 +6151,7 @@
       <c r="Z36" s="31"/>
       <c r="AA36" s="31"/>
     </row>
-    <row r="37" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="37" spans="1:27" s="16" customFormat="1">
       <c r="A37" s="16">
         <v>26</v>
       </c>
@@ -6218,7 +6225,7 @@
       <c r="Z37" s="31"/>
       <c r="AA37" s="31"/>
     </row>
-    <row r="38" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="38" spans="1:27" s="16" customFormat="1">
       <c r="A38" s="16">
         <v>27</v>
       </c>
@@ -6292,7 +6299,7 @@
       <c r="Z38" s="31"/>
       <c r="AA38" s="31"/>
     </row>
-    <row r="39" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="39" spans="1:27" s="16" customFormat="1">
       <c r="A39" s="16">
         <v>28</v>
       </c>
@@ -6366,7 +6373,7 @@
       <c r="Z39" s="31"/>
       <c r="AA39" s="31"/>
     </row>
-    <row r="40" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="40" spans="1:27" s="16" customFormat="1">
       <c r="A40" s="16">
         <v>29</v>
       </c>
@@ -6440,7 +6447,7 @@
       <c r="Z40" s="31"/>
       <c r="AA40" s="31"/>
     </row>
-    <row r="41" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="41" spans="1:27" s="16" customFormat="1">
       <c r="A41" s="16">
         <v>30</v>
       </c>
@@ -6514,7 +6521,7 @@
       <c r="Z41" s="31"/>
       <c r="AA41" s="31"/>
     </row>
-    <row r="42" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="42" spans="1:27" s="16" customFormat="1">
       <c r="A42" s="16">
         <v>31</v>
       </c>
@@ -6588,7 +6595,7 @@
       <c r="Z42" s="31"/>
       <c r="AA42" s="31"/>
     </row>
-    <row r="43" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="43" spans="1:27" s="16" customFormat="1">
       <c r="A43" s="16">
         <v>32</v>
       </c>
@@ -6662,7 +6669,7 @@
       <c r="Z43" s="31"/>
       <c r="AA43" s="31"/>
     </row>
-    <row r="44" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="44" spans="1:27" s="16" customFormat="1">
       <c r="A44" s="16">
         <v>33</v>
       </c>
@@ -6736,7 +6743,7 @@
       <c r="Z44" s="31"/>
       <c r="AA44" s="31"/>
     </row>
-    <row r="45" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="45" spans="1:27" s="16" customFormat="1">
       <c r="A45" s="16">
         <v>34</v>
       </c>
@@ -6812,7 +6819,7 @@
       <c r="Z45" s="31"/>
       <c r="AA45" s="31"/>
     </row>
-    <row r="46" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="46" spans="1:27" s="16" customFormat="1">
       <c r="A46" s="16">
         <v>35</v>
       </c>
@@ -6889,7 +6896,7 @@
       <c r="Z46" s="31"/>
       <c r="AA46" s="31"/>
     </row>
-    <row r="47" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="47" spans="1:27" s="16" customFormat="1">
       <c r="A47" s="16">
         <v>36</v>
       </c>
@@ -6966,7 +6973,7 @@
       <c r="Z47" s="31"/>
       <c r="AA47" s="31"/>
     </row>
-    <row r="48" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="48" spans="1:27" s="16" customFormat="1">
       <c r="A48" s="16">
         <v>37</v>
       </c>
@@ -7043,7 +7050,7 @@
       <c r="Z48" s="31"/>
       <c r="AA48" s="31"/>
     </row>
-    <row r="49" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="49" spans="1:27" s="16" customFormat="1">
       <c r="A49" s="16">
         <v>38</v>
       </c>
@@ -7120,7 +7127,7 @@
       <c r="Z49" s="31"/>
       <c r="AA49" s="31"/>
     </row>
-    <row r="50" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="50" spans="1:27" s="16" customFormat="1">
       <c r="A50" s="16">
         <v>39</v>
       </c>
@@ -7197,7 +7204,7 @@
       <c r="Z50" s="31"/>
       <c r="AA50" s="31"/>
     </row>
-    <row r="51" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="51" spans="1:27" s="16" customFormat="1">
       <c r="A51" s="16">
         <v>40</v>
       </c>
@@ -7274,7 +7281,7 @@
       <c r="Z51" s="31"/>
       <c r="AA51" s="31"/>
     </row>
-    <row r="52" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="52" spans="1:27" s="16" customFormat="1">
       <c r="A52" s="16">
         <v>41</v>
       </c>
@@ -7350,7 +7357,7 @@
       <c r="Z52" s="31"/>
       <c r="AA52" s="31"/>
     </row>
-    <row r="53" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="53" spans="1:27" s="16" customFormat="1">
       <c r="A53" s="16">
         <v>42</v>
       </c>
@@ -7427,7 +7434,7 @@
       <c r="Z53" s="31"/>
       <c r="AA53" s="31"/>
     </row>
-    <row r="54" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="54" spans="1:27" s="16" customFormat="1">
       <c r="A54" s="16">
         <v>43</v>
       </c>
@@ -7504,7 +7511,7 @@
       <c r="Z54" s="31"/>
       <c r="AA54" s="31"/>
     </row>
-    <row r="55" spans="1:27" s="16" customFormat="1" ht="17">
+    <row r="55" spans="1:27" s="16" customFormat="1">
       <c r="A55" s="16">
         <v>44</v>
       </c>
@@ -7701,14 +7708,14 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="172.5" customWidth="1"/>
-    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="172.42578125" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
@@ -7741,9 +7748,9 @@
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="20">
+    <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -7768,16 +7775,16 @@
       <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
